--- a/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9636997024726152</v>
+      </c>
+      <c r="D3">
         <v>1.030665560325617</v>
-      </c>
-      <c r="D3">
-        <v>0.9636997024726152</v>
       </c>
       <c r="E3">
         <v>1.003435684597262</v>
       </c>
       <c r="F3">
+        <v>0.9636997024726152</v>
+      </c>
+      <c r="G3">
+        <v>1.010408849140742</v>
+      </c>
+      <c r="H3">
         <v>1.030665560325617</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.9780617446844125</v>
+      </c>
+      <c r="J3">
         <v>0.9994232970496859</v>
-      </c>
-      <c r="H3">
-        <v>0.9780617446844125</v>
-      </c>
-      <c r="I3">
-        <v>1.010408849140742</v>
-      </c>
-      <c r="J3">
-        <v>0.9636997024726152</v>
       </c>
       <c r="K3">
         <v>1.030665560325617</v>
@@ -728,7 +680,7 @@
         <v>0.9976158063783892</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9287680899144258</v>
+      </c>
+      <c r="D4">
         <v>1.057589404769768</v>
-      </c>
-      <c r="D4">
-        <v>0.9287680899144258</v>
       </c>
       <c r="E4">
         <v>1.006958270925948</v>
       </c>
       <c r="F4">
+        <v>0.9287680899144258</v>
+      </c>
+      <c r="G4">
+        <v>1.019907759038423</v>
+      </c>
+      <c r="H4">
         <v>1.057589404769768</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.9580765361046438</v>
+      </c>
+      <c r="J4">
         <v>1.000379497986021</v>
-      </c>
-      <c r="H4">
-        <v>0.9580765361046436</v>
-      </c>
-      <c r="I4">
-        <v>1.019907759038422</v>
-      </c>
-      <c r="J4">
-        <v>0.9287680899144258</v>
       </c>
       <c r="K4">
         <v>1.057589404769768</v>
@@ -772,7 +724,7 @@
         <v>0.9678631804201869</v>
       </c>
       <c r="O4">
-        <v>0.9646009656483391</v>
+        <v>0.9646009656483393</v>
       </c>
       <c r="P4">
         <v>0.9977719218700472</v>
@@ -787,10 +739,10 @@
         <v>1.012726292594977</v>
       </c>
       <c r="T4">
-        <v>0.9952799264565381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9952799264565382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.8661871031152221</v>
+      </c>
+      <c r="D5">
         <v>1.11046205090115</v>
-      </c>
-      <c r="D5">
-        <v>0.8661871031152221</v>
       </c>
       <c r="E5">
         <v>1.01335545698</v>
       </c>
       <c r="F5">
+        <v>0.8661871031152221</v>
+      </c>
+      <c r="G5">
+        <v>1.037833346510308</v>
+      </c>
+      <c r="H5">
         <v>1.11046205090115</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.9194966314945501</v>
+      </c>
+      <c r="J5">
         <v>1.00268732110723</v>
-      </c>
-      <c r="H5">
-        <v>0.9194966314945501</v>
-      </c>
-      <c r="I5">
-        <v>1.037833346510308</v>
-      </c>
-      <c r="J5">
-        <v>0.8661871031152221</v>
       </c>
       <c r="K5">
         <v>1.11046205090115</v>
@@ -852,7 +804,7 @@
         <v>0.9916703183514103</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8087756810991543</v>
+      </c>
+      <c r="D6">
         <v>1.167589023172376</v>
-      </c>
-      <c r="D6">
-        <v>0.8087756810991543</v>
       </c>
       <c r="E6">
         <v>1.026838707859269</v>
       </c>
       <c r="F6">
+        <v>0.8087756810991543</v>
+      </c>
+      <c r="G6">
+        <v>1.056875636573117</v>
+      </c>
+      <c r="H6">
         <v>1.167589023172376</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.8786428196161559</v>
+      </c>
+      <c r="J6">
         <v>0.996517047193193</v>
-      </c>
-      <c r="H6">
-        <v>0.8786428196161558</v>
-      </c>
-      <c r="I6">
-        <v>1.056875636573117</v>
-      </c>
-      <c r="J6">
-        <v>0.8087756810991543</v>
       </c>
       <c r="K6">
         <v>1.167589023172376</v>
@@ -914,7 +866,7 @@
         <v>0.9892064859188775</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992115204602898</v>
+        <v>0.9987522927470627</v>
       </c>
       <c r="D7">
-        <v>0.9987522927470625</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="E7">
         <v>1.000777402467684</v>
       </c>
       <c r="F7">
-        <v>0.9992115204602898</v>
+        <v>0.9987522927470627</v>
       </c>
       <c r="G7">
-        <v>1.003762851579119</v>
+        <v>1.000272062851771</v>
       </c>
       <c r="H7">
-        <v>0.9989120439352186</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="I7">
-        <v>1.000272062851771</v>
+        <v>0.9989120439352184</v>
       </c>
       <c r="J7">
-        <v>0.9987522927470625</v>
+        <v>1.00376285157912</v>
       </c>
       <c r="K7">
-        <v>0.9992115204602898</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="L7">
         <v>1.000777402467684</v>
       </c>
       <c r="M7">
-        <v>0.9997648476073734</v>
+        <v>0.9997648476073732</v>
       </c>
       <c r="N7">
-        <v>0.9997648476073734</v>
+        <v>0.9997648476073732</v>
       </c>
       <c r="O7">
-        <v>0.9994805797166552</v>
+        <v>0.9994805797166549</v>
       </c>
       <c r="P7">
         <v>0.9995804052250122</v>
@@ -967,16 +919,16 @@
         <v>0.9995804052250122</v>
       </c>
       <c r="R7">
-        <v>0.9994881840338317</v>
+        <v>0.9994881840338319</v>
       </c>
       <c r="S7">
-        <v>0.9994881840338317</v>
+        <v>0.9994881840338319</v>
       </c>
       <c r="T7">
         <v>1.000281362340191</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9979265025937146</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="D8">
-        <v>0.9966489879629391</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="E8">
         <v>1.002027184839077</v>
       </c>
       <c r="F8">
-        <v>0.9979265025937146</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="G8">
-        <v>1.009068096678595</v>
+        <v>1.000721458060404</v>
       </c>
       <c r="H8">
+        <v>0.9979265025937142</v>
+      </c>
+      <c r="I8">
         <v>0.9973548100447442</v>
       </c>
-      <c r="I8">
-        <v>1.000721458060404</v>
-      </c>
       <c r="J8">
-        <v>0.9966489879629391</v>
+        <v>1.009068096678596</v>
       </c>
       <c r="K8">
-        <v>0.9979265025937146</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="L8">
         <v>1.002027184839077</v>
       </c>
       <c r="M8">
-        <v>0.999338086401008</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="N8">
-        <v>0.999338086401008</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="O8">
-        <v>0.9986769942822534</v>
+        <v>0.9986769942822532</v>
       </c>
       <c r="P8">
-        <v>0.9988675584652436</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="Q8">
-        <v>0.9988675584652436</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="R8">
-        <v>0.9986322944973614</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="S8">
-        <v>0.9986322944973614</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="T8">
         <v>1.000624506696579</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9953988062881148</v>
+      </c>
+      <c r="D9">
         <v>0.9970375576551098</v>
-      </c>
-      <c r="D9">
-        <v>0.9953988062881148</v>
       </c>
       <c r="E9">
         <v>1.003229852548315</v>
       </c>
       <c r="F9">
+        <v>0.9953988062881148</v>
+      </c>
+      <c r="G9">
+        <v>1.001202553763713</v>
+      </c>
+      <c r="H9">
         <v>0.9970375576551098</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.9962025018746303</v>
+      </c>
+      <c r="J9">
         <v>1.011476087172007</v>
-      </c>
-      <c r="H9">
-        <v>0.9962025018746303</v>
-      </c>
-      <c r="I9">
-        <v>1.001202553763713</v>
-      </c>
-      <c r="J9">
-        <v>0.9953988062881148</v>
       </c>
       <c r="K9">
         <v>0.9970375576551098</v>
@@ -1076,31 +1028,31 @@
         <v>1.003229852548315</v>
       </c>
       <c r="M9">
-        <v>0.999314329418215</v>
+        <v>0.9993143294182152</v>
       </c>
       <c r="N9">
-        <v>0.999314329418215</v>
+        <v>0.9993143294182152</v>
       </c>
       <c r="O9">
-        <v>0.9982770535703533</v>
+        <v>0.9982770535703537</v>
       </c>
       <c r="P9">
-        <v>0.9985554054971799</v>
+        <v>0.99855540549718</v>
       </c>
       <c r="Q9">
-        <v>0.9985554054971799</v>
+        <v>0.99855540549718</v>
       </c>
       <c r="R9">
-        <v>0.9981759435366624</v>
+        <v>0.9981759435366625</v>
       </c>
       <c r="S9">
-        <v>0.9981759435366624</v>
+        <v>0.9981759435366625</v>
       </c>
       <c r="T9">
         <v>1.000757893216982</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9899204000300973</v>
+      </c>
+      <c r="D10">
         <v>0.9938064079887217</v>
-      </c>
-      <c r="D10">
-        <v>0.9899204000300973</v>
       </c>
       <c r="E10">
         <v>1.006555239631768</v>
       </c>
       <c r="F10">
+        <v>0.9899204000300973</v>
+      </c>
+      <c r="G10">
+        <v>1.002416504897684</v>
+      </c>
+      <c r="H10">
         <v>0.9938064079887217</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.991853546058705</v>
+      </c>
+      <c r="J10">
         <v>1.02577673217156</v>
-      </c>
-      <c r="H10">
-        <v>0.991853546058705</v>
-      </c>
-      <c r="I10">
-        <v>1.002416504897684</v>
-      </c>
-      <c r="J10">
-        <v>0.9899204000300973</v>
       </c>
       <c r="K10">
         <v>0.9938064079887217</v>
@@ -1162,7 +1114,7 @@
         <v>1.001721471796422</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9825253590713676</v>
+      </c>
+      <c r="D11">
         <v>0.9897706853357938</v>
-      </c>
-      <c r="D11">
-        <v>0.9825253590713676</v>
       </c>
       <c r="E11">
         <v>1.011235037801452</v>
       </c>
       <c r="F11">
+        <v>0.9825253590713676</v>
+      </c>
+      <c r="G11">
+        <v>1.004269724335837</v>
+      </c>
+      <c r="H11">
         <v>0.9897706853357938</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.9866968506904967</v>
+      </c>
+      <c r="J11">
         <v>1.040078655043109</v>
-      </c>
-      <c r="H11">
-        <v>0.9866968506904967</v>
-      </c>
-      <c r="I11">
-        <v>1.004269724335837</v>
-      </c>
-      <c r="J11">
-        <v>0.9825253590713676</v>
       </c>
       <c r="K11">
         <v>0.9897706853357938</v>
@@ -1224,7 +1176,7 @@
         <v>1.002429385379676</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,31 +1184,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.394717510638622</v>
+        <v>1.026524799268079</v>
       </c>
       <c r="D12">
-        <v>1.026524799268079</v>
+        <v>1.394717510638623</v>
       </c>
       <c r="E12">
         <v>0.7723368944038363</v>
       </c>
       <c r="F12">
-        <v>1.394717510638622</v>
+        <v>1.026524799268079</v>
       </c>
       <c r="G12">
-        <v>0.405931428946273</v>
+        <v>0.9595643303470247</v>
       </c>
       <c r="H12">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="I12">
         <v>1.113215078843633</v>
       </c>
-      <c r="I12">
-        <v>0.9595643303470249</v>
-      </c>
       <c r="J12">
-        <v>1.026524799268079</v>
+        <v>0.4059314289462729</v>
       </c>
       <c r="K12">
-        <v>1.394717510638622</v>
+        <v>1.394717510638623</v>
       </c>
       <c r="L12">
         <v>0.7723368944038363</v>
@@ -1283,10 +1235,10 @@
         <v>1.14707417873729</v>
       </c>
       <c r="T12">
-        <v>0.9453816737412448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9453816737412449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1246,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7677380426660105</v>
+        <v>1.126509680406858</v>
       </c>
       <c r="D13">
-        <v>1.126509680406857</v>
+        <v>0.7677380426660106</v>
       </c>
       <c r="E13">
         <v>1.093394366662893</v>
       </c>
       <c r="F13">
-        <v>0.7677380426660105</v>
+        <v>1.126509680406858</v>
       </c>
       <c r="G13">
+        <v>0.9937155478589206</v>
+      </c>
+      <c r="H13">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="I13">
+        <v>1.031507248156779</v>
+      </c>
+      <c r="J13">
         <v>1.096093967604579</v>
       </c>
-      <c r="H13">
-        <v>1.031507248156779</v>
-      </c>
-      <c r="I13">
-        <v>0.9937155478589205</v>
-      </c>
-      <c r="J13">
-        <v>1.126509680406857</v>
-      </c>
       <c r="K13">
-        <v>0.7677380426660105</v>
+        <v>0.7677380426660106</v>
       </c>
       <c r="L13">
         <v>1.093394366662893</v>
       </c>
       <c r="M13">
-        <v>1.109952023534875</v>
+        <v>1.109952023534876</v>
       </c>
       <c r="N13">
-        <v>1.109952023534875</v>
+        <v>1.109952023534876</v>
       </c>
       <c r="O13">
         <v>1.08380376507551</v>
       </c>
       <c r="P13">
-        <v>0.995880696578587</v>
+        <v>0.9958806965785874</v>
       </c>
       <c r="Q13">
-        <v>0.995880696578587</v>
+        <v>0.9958806965785872</v>
       </c>
       <c r="R13">
-        <v>0.938845033100443</v>
+        <v>0.9388450331004431</v>
       </c>
       <c r="S13">
-        <v>0.938845033100443</v>
+        <v>0.9388450331004431</v>
       </c>
       <c r="T13">
         <v>1.018159808892673</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="D14">
         <v>0.9369852750566613</v>
-      </c>
-      <c r="D14">
-        <v>1.405692187368071</v>
       </c>
       <c r="E14">
         <v>0.8166937730686347</v>
       </c>
       <c r="F14">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="G14">
+        <v>0.8474466034107666</v>
+      </c>
+      <c r="H14">
         <v>0.9369852750566613</v>
       </c>
-      <c r="G14">
-        <v>0.3071564047415812</v>
-      </c>
-      <c r="H14">
-        <v>1.397995224316289</v>
-      </c>
       <c r="I14">
-        <v>0.8474466034107666</v>
+        <v>1.39799522431629</v>
       </c>
       <c r="J14">
-        <v>1.405692187368071</v>
+        <v>0.307156404741581</v>
       </c>
       <c r="K14">
         <v>0.9369852750566613</v>
@@ -1392,7 +1344,7 @@
         <v>1.111192980218353</v>
       </c>
       <c r="O14">
-        <v>1.206793728250998</v>
+        <v>1.206793728250999</v>
       </c>
       <c r="P14">
         <v>1.053123745164456</v>
@@ -1410,7 +1362,7 @@
         <v>0.9519949113270006</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="D15">
         <v>0.9734808885049026</v>
-      </c>
-      <c r="D15">
-        <v>1.466913630664787</v>
       </c>
       <c r="E15">
         <v>0.9395156794848313</v>
       </c>
       <c r="F15">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="G15">
+        <v>0.9499528938458658</v>
+      </c>
+      <c r="H15">
         <v>0.9734808885049026</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>1.057654262898629</v>
+      </c>
+      <c r="J15">
         <v>0.9564282063364896</v>
-      </c>
-      <c r="H15">
-        <v>1.057654262898629</v>
-      </c>
-      <c r="I15">
-        <v>0.9499528938458657</v>
-      </c>
-      <c r="J15">
-        <v>1.466913630664787</v>
       </c>
       <c r="K15">
         <v>0.9734808885049026</v>
@@ -1472,7 +1424,7 @@
         <v>1.057324260289251</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004329775304098</v>
+        <v>0.2875621354883882</v>
       </c>
       <c r="D16">
-        <v>1.000537369117272</v>
+        <v>1.543234104867619</v>
       </c>
       <c r="E16">
-        <v>0.9977475847104086</v>
+        <v>1.073365978428228</v>
       </c>
       <c r="F16">
-        <v>1.004329775304098</v>
+        <v>0.2875621354883882</v>
       </c>
       <c r="G16">
-        <v>0.9997067563055767</v>
+        <v>1.196559337009143</v>
       </c>
       <c r="H16">
-        <v>0.9999215746775012</v>
+        <v>1.543234104867619</v>
       </c>
       <c r="I16">
-        <v>0.9993568909511842</v>
+        <v>0.5858566737911716</v>
       </c>
       <c r="J16">
-        <v>1.000537369117272</v>
+        <v>1.045359153054569</v>
       </c>
       <c r="K16">
-        <v>1.004329775304098</v>
+        <v>1.543234104867619</v>
       </c>
       <c r="L16">
-        <v>0.9977475847104086</v>
+        <v>1.073365978428228</v>
       </c>
       <c r="M16">
-        <v>0.9991424769138404</v>
+        <v>0.6804640569583079</v>
       </c>
       <c r="N16">
-        <v>0.9991424769138404</v>
+        <v>0.6804640569583079</v>
       </c>
       <c r="O16">
-        <v>0.999402176168394</v>
+        <v>0.6489282625692625</v>
       </c>
       <c r="P16">
-        <v>1.00087157637726</v>
+        <v>0.9680540729280782</v>
       </c>
       <c r="Q16">
-        <v>1.00087157637726</v>
+        <v>0.9680540729280782</v>
       </c>
       <c r="R16">
-        <v>1.001736126108969</v>
+        <v>1.111849080912963</v>
       </c>
       <c r="S16">
-        <v>1.001736126108969</v>
+        <v>1.111849080912963</v>
       </c>
       <c r="T16">
-        <v>1.000266658511007</v>
+        <v>0.9553228971065195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9920823728431052</v>
+        <v>0.4615528145442286</v>
       </c>
       <c r="D17">
-        <v>0.9989936725768293</v>
+        <v>1.344106388256546</v>
       </c>
       <c r="E17">
-        <v>1.003956554590018</v>
+        <v>1.080706120214114</v>
       </c>
       <c r="F17">
-        <v>0.9920823728431052</v>
+        <v>0.4615528145442286</v>
       </c>
       <c r="G17">
-        <v>1.007247407576925</v>
+        <v>1.147471715662545</v>
       </c>
       <c r="H17">
-        <v>0.998701914594357</v>
+        <v>1.344106388256546</v>
       </c>
       <c r="I17">
-        <v>1.001051900779052</v>
+        <v>0.6738949099373648</v>
       </c>
       <c r="J17">
-        <v>0.9989936725768293</v>
+        <v>1.163770932168635</v>
       </c>
       <c r="K17">
-        <v>0.9920823728431052</v>
+        <v>1.344106388256546</v>
       </c>
       <c r="L17">
-        <v>1.003956554590018</v>
+        <v>1.080706120214114</v>
       </c>
       <c r="M17">
-        <v>1.001475113583424</v>
+        <v>0.7711294673791712</v>
       </c>
       <c r="N17">
-        <v>1.001475113583424</v>
+        <v>0.7711294673791712</v>
       </c>
       <c r="O17">
-        <v>1.000550713920402</v>
+        <v>0.7387179482319025</v>
       </c>
       <c r="P17">
-        <v>0.9983442000033175</v>
+        <v>0.9621217743382964</v>
       </c>
       <c r="Q17">
-        <v>0.9983442000033175</v>
+        <v>0.9621217743382964</v>
       </c>
       <c r="R17">
-        <v>0.9967787432132644</v>
+        <v>1.057617927817859</v>
       </c>
       <c r="S17">
-        <v>0.9967787432132644</v>
+        <v>1.057617927817859</v>
       </c>
       <c r="T17">
-        <v>1.000338970493381</v>
+        <v>0.9785838134639055</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026209289655784</v>
+        <v>0.8092285026258882</v>
       </c>
       <c r="D18">
-        <v>0.9875550466523418</v>
+        <v>0.9477639318505913</v>
       </c>
       <c r="E18">
-        <v>0.9944702679845474</v>
+        <v>1.094932337675389</v>
       </c>
       <c r="F18">
-        <v>1.026209289655784</v>
+        <v>0.8092285026258882</v>
       </c>
       <c r="G18">
-        <v>0.9958611002984744</v>
+        <v>1.049514419152314</v>
       </c>
       <c r="H18">
-        <v>0.9927644007135815</v>
+        <v>0.9477639318505913</v>
       </c>
       <c r="I18">
-        <v>1.001049987432583</v>
+        <v>0.8504949683173281</v>
       </c>
       <c r="J18">
-        <v>0.9875550466523418</v>
+        <v>1.395004622711273</v>
       </c>
       <c r="K18">
-        <v>1.026209289655784</v>
+        <v>0.9477639318505913</v>
       </c>
       <c r="L18">
-        <v>0.9944702679845474</v>
+        <v>1.094932337675389</v>
       </c>
       <c r="M18">
-        <v>0.9910126573184446</v>
+        <v>0.9520804201506388</v>
       </c>
       <c r="N18">
-        <v>0.9910126573184446</v>
+        <v>0.9520804201506388</v>
       </c>
       <c r="O18">
-        <v>0.9915965717834903</v>
+        <v>0.9182186028728685</v>
       </c>
       <c r="P18">
-        <v>1.002744868097558</v>
+        <v>0.9506415907172897</v>
       </c>
       <c r="Q18">
-        <v>1.002744868097558</v>
+        <v>0.9506415907172897</v>
       </c>
       <c r="R18">
-        <v>1.008610973487114</v>
+        <v>0.9499221760006151</v>
       </c>
       <c r="S18">
-        <v>1.008610973487114</v>
+        <v>0.9499221760006151</v>
       </c>
       <c r="T18">
-        <v>0.9996516821228854</v>
+        <v>1.024489797055464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8462820930223626</v>
+      </c>
+      <c r="D19">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="E19">
+        <v>1.105040345958041</v>
+      </c>
+      <c r="F19">
+        <v>0.8462820930223626</v>
+      </c>
+      <c r="G19">
+        <v>1.045330267330853</v>
+      </c>
+      <c r="H19">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="I19">
+        <v>0.8365868912391106</v>
+      </c>
+      <c r="J19">
+        <v>1.501664803511474</v>
+      </c>
+      <c r="K19">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="L19">
+        <v>1.105040345958041</v>
+      </c>
+      <c r="M19">
+        <v>0.9756612194902019</v>
+      </c>
+      <c r="N19">
+        <v>0.9756612194902019</v>
+      </c>
+      <c r="O19">
+        <v>0.9293031100731715</v>
+      </c>
+      <c r="P19">
+        <v>0.9541191896199169</v>
+      </c>
+      <c r="Q19">
+        <v>0.9541191896199169</v>
+      </c>
+      <c r="R19">
+        <v>0.9433481746847745</v>
+      </c>
+      <c r="S19">
+        <v>0.9433481746847745</v>
+      </c>
+      <c r="T19">
+        <v>1.040989921823531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000537369117272</v>
+      </c>
+      <c r="D20">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="E20">
+        <v>0.9977475847104087</v>
+      </c>
+      <c r="F20">
+        <v>1.000537369117272</v>
+      </c>
+      <c r="G20">
+        <v>0.9993568909511842</v>
+      </c>
+      <c r="H20">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="I20">
+        <v>0.9999215746775013</v>
+      </c>
+      <c r="J20">
+        <v>0.9997067563055764</v>
+      </c>
+      <c r="K20">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="L20">
+        <v>0.9977475847104087</v>
+      </c>
+      <c r="M20">
+        <v>0.9991424769138402</v>
+      </c>
+      <c r="N20">
+        <v>0.9991424769138402</v>
+      </c>
+      <c r="O20">
+        <v>0.9994021761683939</v>
+      </c>
+      <c r="P20">
+        <v>1.00087157637726</v>
+      </c>
+      <c r="Q20">
+        <v>1.00087157637726</v>
+      </c>
+      <c r="R20">
+        <v>1.00173612610897</v>
+      </c>
+      <c r="S20">
+        <v>1.00173612610897</v>
+      </c>
+      <c r="T20">
+        <v>1.000266658511007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9989936725768289</v>
+      </c>
+      <c r="D21">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="E21">
+        <v>1.003956554590018</v>
+      </c>
+      <c r="F21">
+        <v>0.9989936725768289</v>
+      </c>
+      <c r="G21">
+        <v>1.001051900779052</v>
+      </c>
+      <c r="H21">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="I21">
+        <v>0.998701914594357</v>
+      </c>
+      <c r="J21">
+        <v>1.007247407576925</v>
+      </c>
+      <c r="K21">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="L21">
+        <v>1.003956554590018</v>
+      </c>
+      <c r="M21">
+        <v>1.001475113583424</v>
+      </c>
+      <c r="N21">
+        <v>1.001475113583424</v>
+      </c>
+      <c r="O21">
+        <v>1.000550713920402</v>
+      </c>
+      <c r="P21">
+        <v>0.9983442000033175</v>
+      </c>
+      <c r="Q21">
+        <v>0.9983442000033174</v>
+      </c>
+      <c r="R21">
+        <v>0.9967787432132643</v>
+      </c>
+      <c r="S21">
+        <v>0.9967787432132643</v>
+      </c>
+      <c r="T21">
+        <v>1.000338970493381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9875550466523414</v>
+      </c>
+      <c r="D22">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="E22">
+        <v>0.9944702679845474</v>
+      </c>
+      <c r="F22">
+        <v>0.9875550466523414</v>
+      </c>
+      <c r="G22">
+        <v>1.001049987432584</v>
+      </c>
+      <c r="H22">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="I22">
+        <v>0.9927644007135815</v>
+      </c>
+      <c r="J22">
+        <v>0.9958611002984741</v>
+      </c>
+      <c r="K22">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="L22">
+        <v>0.9944702679845474</v>
+      </c>
+      <c r="M22">
+        <v>0.9910126573184443</v>
+      </c>
+      <c r="N22">
+        <v>0.9910126573184443</v>
+      </c>
+      <c r="O22">
+        <v>0.9915965717834901</v>
+      </c>
+      <c r="P22">
+        <v>1.002744868097557</v>
+      </c>
+      <c r="Q22">
+        <v>1.002744868097557</v>
+      </c>
+      <c r="R22">
+        <v>1.008610973487114</v>
+      </c>
+      <c r="S22">
+        <v>1.008610973487114</v>
+      </c>
+      <c r="T22">
+        <v>0.9996516821228854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9697104786858455</v>
+      </c>
+      <c r="D23">
         <v>1.092928959753906</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9706434533662697</v>
+      </c>
+      <c r="F23">
         <v>0.9697104786858455</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.002492184399208</v>
+      </c>
+      <c r="H23">
+        <v>1.092928959753906</v>
+      </c>
+      <c r="I23">
+        <v>0.9821440969129421</v>
+      </c>
+      <c r="J23">
+        <v>0.9675153057985557</v>
+      </c>
+      <c r="K23">
+        <v>1.092928959753906</v>
+      </c>
+      <c r="L23">
         <v>0.9706434533662697</v>
       </c>
-      <c r="F19">
-        <v>1.092928959753906</v>
-      </c>
-      <c r="G19">
-        <v>0.9675153057985557</v>
-      </c>
-      <c r="H19">
-        <v>0.9821440969129421</v>
-      </c>
-      <c r="I19">
-        <v>1.002492184399208</v>
-      </c>
-      <c r="J19">
-        <v>0.9697104786858455</v>
-      </c>
-      <c r="K19">
-        <v>1.092928959753906</v>
-      </c>
-      <c r="L19">
-        <v>0.9706434533662697</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9701769660260575</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9701769660260575</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.974166009655019</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.011094297268674</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.011094297268674</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.031552962889982</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.031552962889982</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9975724131527878</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9636997024726152</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="D3">
-        <v>1.030665560325617</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="E3">
-        <v>1.003435684597262</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="F3">
-        <v>0.9636997024726152</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="G3">
-        <v>1.010408849140742</v>
+        <v>1.056380666304035</v>
       </c>
       <c r="H3">
-        <v>1.030665560325617</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="I3">
-        <v>0.9780617446844125</v>
+        <v>0.821878835117436</v>
       </c>
       <c r="J3">
-        <v>0.9994232970496859</v>
+        <v>1.475175149883283</v>
       </c>
       <c r="K3">
-        <v>1.030665560325617</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="L3">
-        <v>1.003435684597262</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="M3">
-        <v>0.9835676935349387</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="N3">
-        <v>0.9835676935349387</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="O3">
-        <v>0.98173237725143</v>
+        <v>0.9030629669439495</v>
       </c>
       <c r="P3">
-        <v>0.9992669824651648</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="Q3">
-        <v>0.9992669824651648</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="R3">
-        <v>1.007116626930278</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="S3">
-        <v>1.007116626930278</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="T3">
-        <v>0.9976158063783892</v>
+        <v>1.031132969805789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9287680899144258</v>
+        <v>0.7968905297731378</v>
       </c>
       <c r="D4">
-        <v>1.057589404769768</v>
+        <v>0.9459800802133799</v>
       </c>
       <c r="E4">
-        <v>1.006958270925948</v>
+        <v>1.100581984019747</v>
       </c>
       <c r="F4">
-        <v>0.9287680899144258</v>
+        <v>0.7968905297731378</v>
       </c>
       <c r="G4">
-        <v>1.019907759038423</v>
+        <v>1.052329559817369</v>
       </c>
       <c r="H4">
-        <v>1.057589404769768</v>
+        <v>0.9459800802133799</v>
       </c>
       <c r="I4">
-        <v>0.9580765361046438</v>
+        <v>0.8373631557075146</v>
       </c>
       <c r="J4">
-        <v>1.000379497986021</v>
+        <v>1.434866045725309</v>
       </c>
       <c r="K4">
-        <v>1.057589404769768</v>
+        <v>0.9459800802133799</v>
       </c>
       <c r="L4">
-        <v>1.006958270925948</v>
+        <v>1.100581984019747</v>
       </c>
       <c r="M4">
-        <v>0.9678631804201869</v>
+        <v>0.9487362568964426</v>
       </c>
       <c r="N4">
-        <v>0.9678631804201869</v>
+        <v>0.9487362568964426</v>
       </c>
       <c r="O4">
-        <v>0.9646009656483393</v>
+        <v>0.9116118898334666</v>
       </c>
       <c r="P4">
-        <v>0.9977719218700472</v>
+        <v>0.9478175313354217</v>
       </c>
       <c r="Q4">
-        <v>0.9977719218700472</v>
+        <v>0.9478175313354216</v>
       </c>
       <c r="R4">
-        <v>1.012726292594977</v>
+        <v>0.9473581685549112</v>
       </c>
       <c r="S4">
-        <v>1.012726292594977</v>
+        <v>0.9473581685549112</v>
       </c>
       <c r="T4">
-        <v>0.9952799264565382</v>
+        <v>1.028001892542743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8661871031152221</v>
+        <v>0.7474760743032343</v>
       </c>
       <c r="D5">
-        <v>1.11046205090115</v>
+        <v>0.9449188947978439</v>
       </c>
       <c r="E5">
-        <v>1.01335545698</v>
+        <v>1.12112871199461</v>
       </c>
       <c r="F5">
-        <v>0.8661871031152221</v>
+        <v>0.7474760743032343</v>
       </c>
       <c r="G5">
-        <v>1.037833346510308</v>
+        <v>1.063953594258761</v>
       </c>
       <c r="H5">
-        <v>1.11046205090115</v>
+        <v>0.9449188947978439</v>
       </c>
       <c r="I5">
-        <v>0.9194966314945501</v>
+        <v>0.7927605880997306</v>
       </c>
       <c r="J5">
-        <v>1.00268732110723</v>
+        <v>1.552504930981132</v>
       </c>
       <c r="K5">
-        <v>1.11046205090115</v>
+        <v>0.9449188947978439</v>
       </c>
       <c r="L5">
-        <v>1.01335545698</v>
+        <v>1.12112871199461</v>
       </c>
       <c r="M5">
-        <v>0.939771280047611</v>
+        <v>0.9343023931489221</v>
       </c>
       <c r="N5">
-        <v>0.939771280047611</v>
+        <v>0.9343023931489221</v>
       </c>
       <c r="O5">
-        <v>0.9330130638632573</v>
+        <v>0.8871217914658582</v>
       </c>
       <c r="P5">
-        <v>0.9966682036654575</v>
+        <v>0.937841227031896</v>
       </c>
       <c r="Q5">
-        <v>0.9966682036654575</v>
+        <v>0.9378412270318961</v>
       </c>
       <c r="R5">
-        <v>1.025116665474381</v>
+        <v>0.939610643973383</v>
       </c>
       <c r="S5">
-        <v>1.025116665474381</v>
+        <v>0.939610643973383</v>
       </c>
       <c r="T5">
-        <v>0.9916703183514103</v>
+        <v>1.037123799072552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8087756810991543</v>
+        <v>0.7175895255863639</v>
       </c>
       <c r="D6">
-        <v>1.167589023172376</v>
+        <v>0.9423461751136359</v>
       </c>
       <c r="E6">
-        <v>1.026838707859269</v>
+        <v>1.134256940113638</v>
       </c>
       <c r="F6">
-        <v>0.8087756810991543</v>
+        <v>0.7175895255863639</v>
       </c>
       <c r="G6">
-        <v>1.056875636573117</v>
+        <v>1.070881042329545</v>
       </c>
       <c r="H6">
-        <v>1.167589023172376</v>
+        <v>0.9423461751136359</v>
       </c>
       <c r="I6">
-        <v>0.8786428196161559</v>
+        <v>0.7659156458409084</v>
       </c>
       <c r="J6">
-        <v>0.996517047193193</v>
+        <v>1.625633197443182</v>
       </c>
       <c r="K6">
-        <v>1.167589023172376</v>
+        <v>0.9423461751136359</v>
       </c>
       <c r="L6">
-        <v>1.026838707859269</v>
+        <v>1.134256940113638</v>
       </c>
       <c r="M6">
-        <v>0.9178071944792119</v>
+        <v>0.9259232328500009</v>
       </c>
       <c r="N6">
-        <v>0.9178071944792119</v>
+        <v>0.9259232328500009</v>
       </c>
       <c r="O6">
-        <v>0.9047524028581932</v>
+        <v>0.8725873705136368</v>
       </c>
       <c r="P6">
-        <v>1.0010678040436</v>
+        <v>0.9313975469378791</v>
       </c>
       <c r="Q6">
-        <v>1.0010678040436</v>
+        <v>0.9313975469378791</v>
       </c>
       <c r="R6">
-        <v>1.042698108825794</v>
+        <v>0.9341347039818184</v>
       </c>
       <c r="S6">
-        <v>1.042698108825794</v>
+        <v>0.9341347039818184</v>
       </c>
       <c r="T6">
-        <v>0.9892064859188775</v>
+        <v>1.042770421071212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987522927470627</v>
+        <v>1.291289848845279</v>
       </c>
       <c r="D7">
-        <v>0.9992115204602905</v>
+        <v>0.7867632454036034</v>
       </c>
       <c r="E7">
-        <v>1.000777402467684</v>
+        <v>1.117386284165708</v>
       </c>
       <c r="F7">
-        <v>0.9987522927470627</v>
+        <v>1.291289848845279</v>
       </c>
       <c r="G7">
-        <v>1.000272062851771</v>
+        <v>0.9917963573127631</v>
       </c>
       <c r="H7">
-        <v>0.9992115204602905</v>
+        <v>0.7867632454036034</v>
       </c>
       <c r="I7">
-        <v>0.9989120439352184</v>
+        <v>0.8528902234868325</v>
       </c>
       <c r="J7">
-        <v>1.00376285157912</v>
+        <v>1.67866536380102</v>
       </c>
       <c r="K7">
-        <v>0.9992115204602905</v>
+        <v>0.7867632454036034</v>
       </c>
       <c r="L7">
-        <v>1.000777402467684</v>
+        <v>1.117386284165708</v>
       </c>
       <c r="M7">
-        <v>0.9997648476073732</v>
+        <v>1.204338066505493</v>
       </c>
       <c r="N7">
-        <v>0.9997648476073732</v>
+        <v>1.204338066505493</v>
       </c>
       <c r="O7">
-        <v>0.9994805797166549</v>
+        <v>1.087188785499273</v>
       </c>
       <c r="P7">
-        <v>0.9995804052250122</v>
+        <v>1.06514645947153</v>
       </c>
       <c r="Q7">
-        <v>0.9995804052250122</v>
+        <v>1.06514645947153</v>
       </c>
       <c r="R7">
-        <v>0.9994881840338319</v>
+        <v>0.9955506559545483</v>
       </c>
       <c r="S7">
-        <v>0.9994881840338319</v>
+        <v>0.9955506559545483</v>
       </c>
       <c r="T7">
-        <v>1.000281362340191</v>
+        <v>1.119798553835867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9966489879629384</v>
+        <v>1.285660442863944</v>
       </c>
       <c r="D8">
-        <v>0.9979265025937142</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="E8">
-        <v>1.002027184839077</v>
+        <v>1.120037499514067</v>
       </c>
       <c r="F8">
-        <v>0.9966489879629384</v>
+        <v>1.285660442863944</v>
       </c>
       <c r="G8">
-        <v>1.000721458060404</v>
+        <v>0.9926907483397743</v>
       </c>
       <c r="H8">
-        <v>0.9979265025937142</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="I8">
-        <v>0.9973548100447442</v>
+        <v>0.8503098473864319</v>
       </c>
       <c r="J8">
-        <v>1.009068096678596</v>
+        <v>1.687968925597128</v>
       </c>
       <c r="K8">
-        <v>0.9979265025937142</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="L8">
-        <v>1.002027184839077</v>
+        <v>1.120037499514067</v>
       </c>
       <c r="M8">
-        <v>0.9993380864010077</v>
+        <v>1.202848971189006</v>
       </c>
       <c r="N8">
-        <v>0.9993380864010077</v>
+        <v>1.202848971189006</v>
       </c>
       <c r="O8">
-        <v>0.9986769942822532</v>
+        <v>1.085335929921481</v>
       </c>
       <c r="P8">
-        <v>0.9988675584652432</v>
+        <v>1.06315906636626</v>
       </c>
       <c r="Q8">
-        <v>0.9988675584652432</v>
+        <v>1.06315906636626</v>
       </c>
       <c r="R8">
-        <v>0.998632294497361</v>
+        <v>0.9933141139548878</v>
       </c>
       <c r="S8">
-        <v>0.998632294497361</v>
+        <v>0.9933141139548878</v>
       </c>
       <c r="T8">
-        <v>1.000624506696579</v>
+        <v>1.120074453403686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9953988062881148</v>
+        <v>1.282290463628991</v>
       </c>
       <c r="D9">
-        <v>0.9970375576551098</v>
+        <v>0.7806284181097213</v>
       </c>
       <c r="E9">
-        <v>1.003229852548315</v>
+        <v>1.121945703876371</v>
       </c>
       <c r="F9">
-        <v>0.9953988062881148</v>
+        <v>1.282290463628991</v>
       </c>
       <c r="G9">
-        <v>1.001202553763713</v>
+        <v>0.9930388096774406</v>
       </c>
       <c r="H9">
-        <v>0.9970375576551098</v>
+        <v>0.7806284181097213</v>
       </c>
       <c r="I9">
-        <v>0.9962025018746303</v>
+        <v>0.847970554902249</v>
       </c>
       <c r="J9">
-        <v>1.011476087172007</v>
+        <v>1.699563176132557</v>
       </c>
       <c r="K9">
-        <v>0.9970375576551098</v>
+        <v>0.7806284181097213</v>
       </c>
       <c r="L9">
-        <v>1.003229852548315</v>
+        <v>1.121945703876371</v>
       </c>
       <c r="M9">
-        <v>0.9993143294182152</v>
+        <v>1.202118083752681</v>
       </c>
       <c r="N9">
-        <v>0.9993143294182152</v>
+        <v>1.202118083752681</v>
       </c>
       <c r="O9">
-        <v>0.9982770535703537</v>
+        <v>1.084068907469204</v>
       </c>
       <c r="P9">
-        <v>0.99855540549718</v>
+        <v>1.061621528538361</v>
       </c>
       <c r="Q9">
-        <v>0.99855540549718</v>
+        <v>1.061621528538361</v>
       </c>
       <c r="R9">
-        <v>0.9981759435366625</v>
+        <v>0.991373250931201</v>
       </c>
       <c r="S9">
-        <v>0.9981759435366625</v>
+        <v>0.991373250931201</v>
       </c>
       <c r="T9">
-        <v>1.000757893216982</v>
+        <v>1.120906187721222</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9899204000300973</v>
+        <v>1.27000341468013</v>
       </c>
       <c r="D10">
-        <v>0.9938064079887217</v>
+        <v>0.7715351482279059</v>
       </c>
       <c r="E10">
-        <v>1.006555239631768</v>
+        <v>1.129196592735379</v>
       </c>
       <c r="F10">
-        <v>0.9899204000300973</v>
+        <v>1.27000341468013</v>
       </c>
       <c r="G10">
-        <v>1.002416504897684</v>
+        <v>0.9948676014257046</v>
       </c>
       <c r="H10">
-        <v>0.9938064079887217</v>
+        <v>0.7715351482279059</v>
       </c>
       <c r="I10">
-        <v>0.991853546058705</v>
+        <v>0.8450593254386264</v>
       </c>
       <c r="J10">
-        <v>1.02577673217156</v>
+        <v>1.710769613102363</v>
       </c>
       <c r="K10">
-        <v>0.9938064079887217</v>
+        <v>0.7715351482279059</v>
       </c>
       <c r="L10">
-        <v>1.006555239631768</v>
+        <v>1.129196592735379</v>
       </c>
       <c r="M10">
-        <v>0.9982378198309325</v>
+        <v>1.199600003707754</v>
       </c>
       <c r="N10">
-        <v>0.9982378198309325</v>
+        <v>1.199600003707754</v>
       </c>
       <c r="O10">
-        <v>0.9961097285735233</v>
+        <v>1.081419777618045</v>
       </c>
       <c r="P10">
-        <v>0.9967606825501956</v>
+        <v>1.056911718547805</v>
       </c>
       <c r="Q10">
-        <v>0.9967606825501956</v>
+        <v>1.056911718547805</v>
       </c>
       <c r="R10">
-        <v>0.9960221139098271</v>
+        <v>0.9855675759678303</v>
       </c>
       <c r="S10">
-        <v>0.9960221139098271</v>
+        <v>0.9855675759678303</v>
       </c>
       <c r="T10">
-        <v>1.001721471796422</v>
+        <v>1.120238615935018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9825253590713676</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="D11">
-        <v>0.9897706853357938</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="E11">
-        <v>1.011235037801452</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="F11">
-        <v>0.9825253590713676</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="G11">
-        <v>1.004269724335837</v>
+        <v>1.01131347839317</v>
       </c>
       <c r="H11">
-        <v>0.9897706853357938</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="I11">
-        <v>0.9866968506904967</v>
+        <v>0.9764273620388224</v>
       </c>
       <c r="J11">
-        <v>1.040078655043109</v>
+        <v>1.00069976678915</v>
       </c>
       <c r="K11">
-        <v>0.9897706853357938</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="L11">
-        <v>1.011235037801452</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="M11">
-        <v>0.9968801984364097</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="N11">
-        <v>0.9968801984364097</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="O11">
-        <v>0.993485749187772</v>
+        <v>0.9800417130515955</v>
       </c>
       <c r="P11">
-        <v>0.9945103607362045</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="Q11">
-        <v>0.9945103607362045</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="R11">
-        <v>0.9933254418861018</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="S11">
-        <v>0.9933254418861018</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="T11">
-        <v>1.002429385379676</v>
+        <v>0.9972907221563417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.026524799268079</v>
+        <v>0.9835937355349818</v>
       </c>
       <c r="D12">
-        <v>1.394717510638623</v>
+        <v>1.013666245454844</v>
       </c>
       <c r="E12">
-        <v>0.7723368944038363</v>
+        <v>1.001997499956833</v>
       </c>
       <c r="F12">
-        <v>1.026524799268079</v>
+        <v>0.9835937355349818</v>
       </c>
       <c r="G12">
-        <v>0.9595643303470247</v>
+        <v>1.004888535328737</v>
       </c>
       <c r="H12">
-        <v>1.394717510638623</v>
+        <v>1.013666245454844</v>
       </c>
       <c r="I12">
-        <v>1.113215078843633</v>
+        <v>0.9888756938592804</v>
       </c>
       <c r="J12">
-        <v>0.4059314289462729</v>
+        <v>1.003367327961336</v>
       </c>
       <c r="K12">
-        <v>1.394717510638623</v>
+        <v>1.013666245454844</v>
       </c>
       <c r="L12">
-        <v>0.7723368944038363</v>
+        <v>1.001997499956833</v>
       </c>
       <c r="M12">
-        <v>0.8994308468359578</v>
+        <v>0.9927956177459074</v>
       </c>
       <c r="N12">
-        <v>0.8994308468359578</v>
+        <v>0.9927956177459074</v>
       </c>
       <c r="O12">
-        <v>0.9706922575051831</v>
+        <v>0.991488976450365</v>
       </c>
       <c r="P12">
-        <v>1.064526401436846</v>
+        <v>0.9997524936488862</v>
       </c>
       <c r="Q12">
-        <v>1.064526401436846</v>
+        <v>0.9997524936488862</v>
       </c>
       <c r="R12">
-        <v>1.14707417873729</v>
+        <v>1.003230931600376</v>
       </c>
       <c r="S12">
-        <v>1.14707417873729</v>
+        <v>1.003230931600376</v>
       </c>
       <c r="T12">
-        <v>0.9453816737412449</v>
+        <v>0.9993981730160021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.126509680406858</v>
+        <v>0.9470558119765686</v>
       </c>
       <c r="D13">
-        <v>0.7677380426660106</v>
+        <v>1.047654594489041</v>
       </c>
       <c r="E13">
-        <v>1.093394366662893</v>
+        <v>1.005769089820385</v>
       </c>
       <c r="F13">
-        <v>1.126509680406858</v>
+        <v>0.9470558119765686</v>
       </c>
       <c r="G13">
-        <v>0.9937155478589206</v>
+        <v>1.016288167071714</v>
       </c>
       <c r="H13">
-        <v>0.7677380426660106</v>
+        <v>1.047654594489041</v>
       </c>
       <c r="I13">
-        <v>1.031507248156779</v>
+        <v>0.9634218701020911</v>
       </c>
       <c r="J13">
-        <v>1.096093967604579</v>
+        <v>1.006618049962781</v>
       </c>
       <c r="K13">
-        <v>0.7677380426660106</v>
+        <v>1.047654594489041</v>
       </c>
       <c r="L13">
-        <v>1.093394366662893</v>
+        <v>1.005769089820385</v>
       </c>
       <c r="M13">
-        <v>1.109952023534876</v>
+        <v>0.9764124508984767</v>
       </c>
       <c r="N13">
-        <v>1.109952023534876</v>
+        <v>0.9764124508984767</v>
       </c>
       <c r="O13">
-        <v>1.08380376507551</v>
+        <v>0.9720822572996815</v>
       </c>
       <c r="P13">
-        <v>0.9958806965785874</v>
+        <v>1.000159832095331</v>
       </c>
       <c r="Q13">
-        <v>0.9958806965785872</v>
+        <v>1.000159832095331</v>
       </c>
       <c r="R13">
-        <v>0.9388450331004431</v>
+        <v>1.012033522693759</v>
       </c>
       <c r="S13">
-        <v>0.9388450331004431</v>
+        <v>1.012033522693759</v>
       </c>
       <c r="T13">
-        <v>1.018159808892673</v>
+        <v>0.9978012639037633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.405692187368071</v>
+        <v>0.8985733875812618</v>
       </c>
       <c r="D14">
-        <v>0.9369852750566613</v>
+        <v>1.081713630953</v>
       </c>
       <c r="E14">
-        <v>0.8166937730686347</v>
+        <v>1.009420189137039</v>
       </c>
       <c r="F14">
-        <v>1.405692187368071</v>
+        <v>0.8985733875812618</v>
       </c>
       <c r="G14">
-        <v>0.8474466034107666</v>
+        <v>1.028082215668861</v>
       </c>
       <c r="H14">
-        <v>0.9369852750566613</v>
+        <v>1.081713630953</v>
       </c>
       <c r="I14">
-        <v>1.39799522431629</v>
+        <v>0.9401215641443493</v>
       </c>
       <c r="J14">
-        <v>0.307156404741581</v>
+        <v>1.003901351587441</v>
       </c>
       <c r="K14">
-        <v>0.9369852750566613</v>
+        <v>1.081713630953</v>
       </c>
       <c r="L14">
-        <v>0.8166937730686347</v>
+        <v>1.009420189137039</v>
       </c>
       <c r="M14">
-        <v>1.111192980218353</v>
+        <v>0.9539967883591506</v>
       </c>
       <c r="N14">
-        <v>1.111192980218353</v>
+        <v>0.9539967883591506</v>
       </c>
       <c r="O14">
-        <v>1.206793728250999</v>
+        <v>0.9493717136208835</v>
       </c>
       <c r="P14">
-        <v>1.053123745164456</v>
+        <v>0.9965690692237672</v>
       </c>
       <c r="Q14">
-        <v>1.053123745164456</v>
+        <v>0.9965690692237672</v>
       </c>
       <c r="R14">
-        <v>1.024089127637507</v>
+        <v>1.017855209656076</v>
       </c>
       <c r="S14">
-        <v>1.024089127637507</v>
+        <v>1.017855209656076</v>
       </c>
       <c r="T14">
-        <v>0.9519949113270006</v>
+        <v>0.9936353898453255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.466913630664787</v>
+        <v>0.9636997024726152</v>
       </c>
       <c r="D15">
-        <v>0.9734808885049026</v>
+        <v>1.030665560325617</v>
       </c>
       <c r="E15">
-        <v>0.9395156794848313</v>
+        <v>1.003435684597262</v>
       </c>
       <c r="F15">
-        <v>1.466913630664787</v>
+        <v>0.9636997024726152</v>
       </c>
       <c r="G15">
-        <v>0.9499528938458658</v>
+        <v>1.010408849140742</v>
       </c>
       <c r="H15">
-        <v>0.9734808885049026</v>
+        <v>1.030665560325617</v>
       </c>
       <c r="I15">
-        <v>1.057654262898629</v>
+        <v>0.9780617446844125</v>
       </c>
       <c r="J15">
-        <v>0.9564282063364896</v>
+        <v>0.9994232970496859</v>
       </c>
       <c r="K15">
-        <v>0.9734808885049026</v>
+        <v>1.030665560325617</v>
       </c>
       <c r="L15">
-        <v>0.9395156794848313</v>
+        <v>1.003435684597262</v>
       </c>
       <c r="M15">
-        <v>1.203214655074809</v>
+        <v>0.9835676935349387</v>
       </c>
       <c r="N15">
-        <v>1.203214655074809</v>
+        <v>0.9835676935349387</v>
       </c>
       <c r="O15">
-        <v>1.154694524349416</v>
+        <v>0.98173237725143</v>
       </c>
       <c r="P15">
-        <v>1.12663673288484</v>
+        <v>0.9992669824651648</v>
       </c>
       <c r="Q15">
-        <v>1.12663673288484</v>
+        <v>0.9992669824651648</v>
       </c>
       <c r="R15">
-        <v>1.088347771789856</v>
+        <v>1.007116626930278</v>
       </c>
       <c r="S15">
-        <v>1.088347771789856</v>
+        <v>1.007116626930278</v>
       </c>
       <c r="T15">
-        <v>1.057324260289251</v>
+        <v>0.9976158063783892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2875621354883882</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="D16">
-        <v>1.543234104867619</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="E16">
-        <v>1.073365978428228</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="F16">
-        <v>0.2875621354883882</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="G16">
-        <v>1.196559337009143</v>
+        <v>1.019907759038423</v>
       </c>
       <c r="H16">
-        <v>1.543234104867619</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="I16">
-        <v>0.5858566737911716</v>
+        <v>0.9580765361046438</v>
       </c>
       <c r="J16">
-        <v>1.045359153054569</v>
+        <v>1.000379497986021</v>
       </c>
       <c r="K16">
-        <v>1.543234104867619</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="L16">
-        <v>1.073365978428228</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="M16">
-        <v>0.6804640569583079</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="N16">
-        <v>0.6804640569583079</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="O16">
-        <v>0.6489282625692625</v>
+        <v>0.9646009656483393</v>
       </c>
       <c r="P16">
-        <v>0.9680540729280782</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="Q16">
-        <v>0.9680540729280782</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="R16">
-        <v>1.111849080912963</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="S16">
-        <v>1.111849080912963</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="T16">
-        <v>0.9553228971065195</v>
+        <v>0.9952799264565382</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4615528145442286</v>
+        <v>0.8661871031152221</v>
       </c>
       <c r="D17">
-        <v>1.344106388256546</v>
+        <v>1.11046205090115</v>
       </c>
       <c r="E17">
-        <v>1.080706120214114</v>
+        <v>1.01335545698</v>
       </c>
       <c r="F17">
-        <v>0.4615528145442286</v>
+        <v>0.8661871031152221</v>
       </c>
       <c r="G17">
-        <v>1.147471715662545</v>
+        <v>1.037833346510308</v>
       </c>
       <c r="H17">
-        <v>1.344106388256546</v>
+        <v>1.11046205090115</v>
       </c>
       <c r="I17">
-        <v>0.6738949099373648</v>
+        <v>0.9194966314945501</v>
       </c>
       <c r="J17">
-        <v>1.163770932168635</v>
+        <v>1.00268732110723</v>
       </c>
       <c r="K17">
-        <v>1.344106388256546</v>
+        <v>1.11046205090115</v>
       </c>
       <c r="L17">
-        <v>1.080706120214114</v>
+        <v>1.01335545698</v>
       </c>
       <c r="M17">
-        <v>0.7711294673791712</v>
+        <v>0.939771280047611</v>
       </c>
       <c r="N17">
-        <v>0.7711294673791712</v>
+        <v>0.939771280047611</v>
       </c>
       <c r="O17">
-        <v>0.7387179482319025</v>
+        <v>0.9330130638632573</v>
       </c>
       <c r="P17">
-        <v>0.9621217743382964</v>
+        <v>0.9966682036654575</v>
       </c>
       <c r="Q17">
-        <v>0.9621217743382964</v>
+        <v>0.9966682036654575</v>
       </c>
       <c r="R17">
-        <v>1.057617927817859</v>
+        <v>1.025116665474381</v>
       </c>
       <c r="S17">
-        <v>1.057617927817859</v>
+        <v>1.025116665474381</v>
       </c>
       <c r="T17">
-        <v>0.9785838134639055</v>
+        <v>0.9916703183514103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8092285026258882</v>
+        <v>0.8087756810991543</v>
       </c>
       <c r="D18">
-        <v>0.9477639318505913</v>
+        <v>1.167589023172376</v>
       </c>
       <c r="E18">
-        <v>1.094932337675389</v>
+        <v>1.026838707859269</v>
       </c>
       <c r="F18">
-        <v>0.8092285026258882</v>
+        <v>0.8087756810991543</v>
       </c>
       <c r="G18">
-        <v>1.049514419152314</v>
+        <v>1.056875636573117</v>
       </c>
       <c r="H18">
-        <v>0.9477639318505913</v>
+        <v>1.167589023172376</v>
       </c>
       <c r="I18">
-        <v>0.8504949683173281</v>
+        <v>0.8786428196161559</v>
       </c>
       <c r="J18">
-        <v>1.395004622711273</v>
+        <v>0.996517047193193</v>
       </c>
       <c r="K18">
-        <v>0.9477639318505913</v>
+        <v>1.167589023172376</v>
       </c>
       <c r="L18">
-        <v>1.094932337675389</v>
+        <v>1.026838707859269</v>
       </c>
       <c r="M18">
-        <v>0.9520804201506388</v>
+        <v>0.9178071944792119</v>
       </c>
       <c r="N18">
-        <v>0.9520804201506388</v>
+        <v>0.9178071944792119</v>
       </c>
       <c r="O18">
-        <v>0.9182186028728685</v>
+        <v>0.9047524028581932</v>
       </c>
       <c r="P18">
-        <v>0.9506415907172897</v>
+        <v>1.0010678040436</v>
       </c>
       <c r="Q18">
-        <v>0.9506415907172897</v>
+        <v>1.0010678040436</v>
       </c>
       <c r="R18">
-        <v>0.9499221760006151</v>
+        <v>1.042698108825794</v>
       </c>
       <c r="S18">
-        <v>0.9499221760006151</v>
+        <v>1.042698108825794</v>
       </c>
       <c r="T18">
-        <v>1.024489797055464</v>
+        <v>0.9892064859188775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8462820930223626</v>
+        <v>0.9987522927470627</v>
       </c>
       <c r="D19">
-        <v>0.9110351298793471</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="E19">
-        <v>1.105040345958041</v>
+        <v>1.000777402467684</v>
       </c>
       <c r="F19">
-        <v>0.8462820930223626</v>
+        <v>0.9987522927470627</v>
       </c>
       <c r="G19">
-        <v>1.045330267330853</v>
+        <v>1.000272062851771</v>
       </c>
       <c r="H19">
-        <v>0.9110351298793471</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="I19">
-        <v>0.8365868912391106</v>
+        <v>0.9989120439352184</v>
       </c>
       <c r="J19">
-        <v>1.501664803511474</v>
+        <v>1.00376285157912</v>
       </c>
       <c r="K19">
-        <v>0.9110351298793471</v>
+        <v>0.9992115204602905</v>
       </c>
       <c r="L19">
-        <v>1.105040345958041</v>
+        <v>1.000777402467684</v>
       </c>
       <c r="M19">
-        <v>0.9756612194902019</v>
+        <v>0.9997648476073732</v>
       </c>
       <c r="N19">
-        <v>0.9756612194902019</v>
+        <v>0.9997648476073732</v>
       </c>
       <c r="O19">
-        <v>0.9293031100731715</v>
+        <v>0.9994805797166549</v>
       </c>
       <c r="P19">
-        <v>0.9541191896199169</v>
+        <v>0.9995804052250122</v>
       </c>
       <c r="Q19">
-        <v>0.9541191896199169</v>
+        <v>0.9995804052250122</v>
       </c>
       <c r="R19">
-        <v>0.9433481746847745</v>
+        <v>0.9994881840338319</v>
       </c>
       <c r="S19">
-        <v>0.9433481746847745</v>
+        <v>0.9994881840338319</v>
       </c>
       <c r="T19">
-        <v>1.040989921823531</v>
+        <v>1.000281362340191</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000537369117272</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="D20">
-        <v>1.004329775304099</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="E20">
-        <v>0.9977475847104087</v>
+        <v>1.002027184839077</v>
       </c>
       <c r="F20">
-        <v>1.000537369117272</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="G20">
-        <v>0.9993568909511842</v>
+        <v>1.000721458060404</v>
       </c>
       <c r="H20">
-        <v>1.004329775304099</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="I20">
-        <v>0.9999215746775013</v>
+        <v>0.9973548100447442</v>
       </c>
       <c r="J20">
-        <v>0.9997067563055764</v>
+        <v>1.009068096678596</v>
       </c>
       <c r="K20">
-        <v>1.004329775304099</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="L20">
-        <v>0.9977475847104087</v>
+        <v>1.002027184839077</v>
       </c>
       <c r="M20">
-        <v>0.9991424769138402</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="N20">
-        <v>0.9991424769138402</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="O20">
-        <v>0.9994021761683939</v>
+        <v>0.9986769942822532</v>
       </c>
       <c r="P20">
-        <v>1.00087157637726</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="Q20">
-        <v>1.00087157637726</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="R20">
-        <v>1.00173612610897</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="S20">
-        <v>1.00173612610897</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="T20">
-        <v>1.000266658511007</v>
+        <v>1.000624506696579</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9989936725768289</v>
+        <v>0.9953988062881148</v>
       </c>
       <c r="D21">
-        <v>0.9920823728431052</v>
+        <v>0.9970375576551098</v>
       </c>
       <c r="E21">
-        <v>1.003956554590018</v>
+        <v>1.003229852548315</v>
       </c>
       <c r="F21">
-        <v>0.9989936725768289</v>
+        <v>0.9953988062881148</v>
       </c>
       <c r="G21">
-        <v>1.001051900779052</v>
+        <v>1.001202553763713</v>
       </c>
       <c r="H21">
-        <v>0.9920823728431052</v>
+        <v>0.9970375576551098</v>
       </c>
       <c r="I21">
-        <v>0.998701914594357</v>
+        <v>0.9962025018746303</v>
       </c>
       <c r="J21">
-        <v>1.007247407576925</v>
+        <v>1.011476087172007</v>
       </c>
       <c r="K21">
-        <v>0.9920823728431052</v>
+        <v>0.9970375576551098</v>
       </c>
       <c r="L21">
-        <v>1.003956554590018</v>
+        <v>1.003229852548315</v>
       </c>
       <c r="M21">
-        <v>1.001475113583424</v>
+        <v>0.9993143294182152</v>
       </c>
       <c r="N21">
-        <v>1.001475113583424</v>
+        <v>0.9993143294182152</v>
       </c>
       <c r="O21">
-        <v>1.000550713920402</v>
+        <v>0.9982770535703537</v>
       </c>
       <c r="P21">
-        <v>0.9983442000033175</v>
+        <v>0.99855540549718</v>
       </c>
       <c r="Q21">
-        <v>0.9983442000033174</v>
+        <v>0.99855540549718</v>
       </c>
       <c r="R21">
-        <v>0.9967787432132643</v>
+        <v>0.9981759435366625</v>
       </c>
       <c r="S21">
-        <v>0.9967787432132643</v>
+        <v>0.9981759435366625</v>
       </c>
       <c r="T21">
-        <v>1.000338970493381</v>
+        <v>1.000757893216982</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9875550466523414</v>
+        <v>0.9899204000300973</v>
       </c>
       <c r="D22">
-        <v>1.026209289655784</v>
+        <v>0.9938064079887217</v>
       </c>
       <c r="E22">
-        <v>0.9944702679845474</v>
+        <v>1.006555239631768</v>
       </c>
       <c r="F22">
-        <v>0.9875550466523414</v>
+        <v>0.9899204000300973</v>
       </c>
       <c r="G22">
-        <v>1.001049987432584</v>
+        <v>1.002416504897684</v>
       </c>
       <c r="H22">
-        <v>1.026209289655784</v>
+        <v>0.9938064079887217</v>
       </c>
       <c r="I22">
-        <v>0.9927644007135815</v>
+        <v>0.991853546058705</v>
       </c>
       <c r="J22">
-        <v>0.9958611002984741</v>
+        <v>1.02577673217156</v>
       </c>
       <c r="K22">
-        <v>1.026209289655784</v>
+        <v>0.9938064079887217</v>
       </c>
       <c r="L22">
-        <v>0.9944702679845474</v>
+        <v>1.006555239631768</v>
       </c>
       <c r="M22">
-        <v>0.9910126573184443</v>
+        <v>0.9982378198309325</v>
       </c>
       <c r="N22">
-        <v>0.9910126573184443</v>
+        <v>0.9982378198309325</v>
       </c>
       <c r="O22">
-        <v>0.9915965717834901</v>
+        <v>0.9961097285735233</v>
       </c>
       <c r="P22">
-        <v>1.002744868097557</v>
+        <v>0.9967606825501956</v>
       </c>
       <c r="Q22">
-        <v>1.002744868097557</v>
+        <v>0.9967606825501956</v>
       </c>
       <c r="R22">
-        <v>1.008610973487114</v>
+        <v>0.9960221139098271</v>
       </c>
       <c r="S22">
-        <v>1.008610973487114</v>
+        <v>0.9960221139098271</v>
       </c>
       <c r="T22">
-        <v>0.9996516821228854</v>
+        <v>1.001721471796422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9825253590713676</v>
+      </c>
+      <c r="D23">
+        <v>0.9897706853357938</v>
+      </c>
+      <c r="E23">
+        <v>1.011235037801452</v>
+      </c>
+      <c r="F23">
+        <v>0.9825253590713676</v>
+      </c>
+      <c r="G23">
+        <v>1.004269724335837</v>
+      </c>
+      <c r="H23">
+        <v>0.9897706853357938</v>
+      </c>
+      <c r="I23">
+        <v>0.9866968506904967</v>
+      </c>
+      <c r="J23">
+        <v>1.040078655043109</v>
+      </c>
+      <c r="K23">
+        <v>0.9897706853357938</v>
+      </c>
+      <c r="L23">
+        <v>1.011235037801452</v>
+      </c>
+      <c r="M23">
+        <v>0.9968801984364097</v>
+      </c>
+      <c r="N23">
+        <v>0.9968801984364097</v>
+      </c>
+      <c r="O23">
+        <v>0.993485749187772</v>
+      </c>
+      <c r="P23">
+        <v>0.9945103607362045</v>
+      </c>
+      <c r="Q23">
+        <v>0.9945103607362045</v>
+      </c>
+      <c r="R23">
+        <v>0.9933254418861018</v>
+      </c>
+      <c r="S23">
+        <v>0.9933254418861018</v>
+      </c>
+      <c r="T23">
+        <v>1.002429385379676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.026524799268079</v>
+      </c>
+      <c r="D24">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="E24">
+        <v>0.7723368944038363</v>
+      </c>
+      <c r="F24">
+        <v>1.026524799268079</v>
+      </c>
+      <c r="G24">
+        <v>0.9595643303470247</v>
+      </c>
+      <c r="H24">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="I24">
+        <v>1.113215078843633</v>
+      </c>
+      <c r="J24">
+        <v>0.4059314289462729</v>
+      </c>
+      <c r="K24">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="L24">
+        <v>0.7723368944038363</v>
+      </c>
+      <c r="M24">
+        <v>0.8994308468359578</v>
+      </c>
+      <c r="N24">
+        <v>0.8994308468359578</v>
+      </c>
+      <c r="O24">
+        <v>0.9706922575051831</v>
+      </c>
+      <c r="P24">
+        <v>1.064526401436846</v>
+      </c>
+      <c r="Q24">
+        <v>1.064526401436846</v>
+      </c>
+      <c r="R24">
+        <v>1.14707417873729</v>
+      </c>
+      <c r="S24">
+        <v>1.14707417873729</v>
+      </c>
+      <c r="T24">
+        <v>0.9453816737412449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.126509680406858</v>
+      </c>
+      <c r="D25">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="E25">
+        <v>1.093394366662893</v>
+      </c>
+      <c r="F25">
+        <v>1.126509680406858</v>
+      </c>
+      <c r="G25">
+        <v>0.9937155478589206</v>
+      </c>
+      <c r="H25">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="I25">
+        <v>1.031507248156779</v>
+      </c>
+      <c r="J25">
+        <v>1.096093967604579</v>
+      </c>
+      <c r="K25">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="L25">
+        <v>1.093394366662893</v>
+      </c>
+      <c r="M25">
+        <v>1.109952023534876</v>
+      </c>
+      <c r="N25">
+        <v>1.109952023534876</v>
+      </c>
+      <c r="O25">
+        <v>1.08380376507551</v>
+      </c>
+      <c r="P25">
+        <v>0.9958806965785874</v>
+      </c>
+      <c r="Q25">
+        <v>0.9958806965785872</v>
+      </c>
+      <c r="R25">
+        <v>0.9388450331004431</v>
+      </c>
+      <c r="S25">
+        <v>0.9388450331004431</v>
+      </c>
+      <c r="T25">
+        <v>1.018159808892673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="D26">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="E26">
+        <v>0.8166937730686347</v>
+      </c>
+      <c r="F26">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="G26">
+        <v>0.8474466034107666</v>
+      </c>
+      <c r="H26">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="I26">
+        <v>1.39799522431629</v>
+      </c>
+      <c r="J26">
+        <v>0.307156404741581</v>
+      </c>
+      <c r="K26">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="L26">
+        <v>0.8166937730686347</v>
+      </c>
+      <c r="M26">
+        <v>1.111192980218353</v>
+      </c>
+      <c r="N26">
+        <v>1.111192980218353</v>
+      </c>
+      <c r="O26">
+        <v>1.206793728250999</v>
+      </c>
+      <c r="P26">
+        <v>1.053123745164456</v>
+      </c>
+      <c r="Q26">
+        <v>1.053123745164456</v>
+      </c>
+      <c r="R26">
+        <v>1.024089127637507</v>
+      </c>
+      <c r="S26">
+        <v>1.024089127637507</v>
+      </c>
+      <c r="T26">
+        <v>0.9519949113270006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="D27">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="E27">
+        <v>0.9395156794848313</v>
+      </c>
+      <c r="F27">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="G27">
+        <v>0.9499528938458658</v>
+      </c>
+      <c r="H27">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="I27">
+        <v>1.057654262898629</v>
+      </c>
+      <c r="J27">
+        <v>0.9564282063364896</v>
+      </c>
+      <c r="K27">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="L27">
+        <v>0.9395156794848313</v>
+      </c>
+      <c r="M27">
+        <v>1.203214655074809</v>
+      </c>
+      <c r="N27">
+        <v>1.203214655074809</v>
+      </c>
+      <c r="O27">
+        <v>1.154694524349416</v>
+      </c>
+      <c r="P27">
+        <v>1.12663673288484</v>
+      </c>
+      <c r="Q27">
+        <v>1.12663673288484</v>
+      </c>
+      <c r="R27">
+        <v>1.088347771789856</v>
+      </c>
+      <c r="S27">
+        <v>1.088347771789856</v>
+      </c>
+      <c r="T27">
+        <v>1.057324260289251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2875621354883882</v>
+      </c>
+      <c r="D28">
+        <v>1.543234104867619</v>
+      </c>
+      <c r="E28">
+        <v>1.073365978428228</v>
+      </c>
+      <c r="F28">
+        <v>0.2875621354883882</v>
+      </c>
+      <c r="G28">
+        <v>1.196559337009143</v>
+      </c>
+      <c r="H28">
+        <v>1.543234104867619</v>
+      </c>
+      <c r="I28">
+        <v>0.5858566737911716</v>
+      </c>
+      <c r="J28">
+        <v>1.045359153054569</v>
+      </c>
+      <c r="K28">
+        <v>1.543234104867619</v>
+      </c>
+      <c r="L28">
+        <v>1.073365978428228</v>
+      </c>
+      <c r="M28">
+        <v>0.6804640569583079</v>
+      </c>
+      <c r="N28">
+        <v>0.6804640569583079</v>
+      </c>
+      <c r="O28">
+        <v>0.6489282625692625</v>
+      </c>
+      <c r="P28">
+        <v>0.9680540729280782</v>
+      </c>
+      <c r="Q28">
+        <v>0.9680540729280782</v>
+      </c>
+      <c r="R28">
+        <v>1.111849080912963</v>
+      </c>
+      <c r="S28">
+        <v>1.111849080912963</v>
+      </c>
+      <c r="T28">
+        <v>0.9553228971065195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4615528145442286</v>
+      </c>
+      <c r="D29">
+        <v>1.344106388256546</v>
+      </c>
+      <c r="E29">
+        <v>1.080706120214114</v>
+      </c>
+      <c r="F29">
+        <v>0.4615528145442286</v>
+      </c>
+      <c r="G29">
+        <v>1.147471715662545</v>
+      </c>
+      <c r="H29">
+        <v>1.344106388256546</v>
+      </c>
+      <c r="I29">
+        <v>0.6738949099373648</v>
+      </c>
+      <c r="J29">
+        <v>1.163770932168635</v>
+      </c>
+      <c r="K29">
+        <v>1.344106388256546</v>
+      </c>
+      <c r="L29">
+        <v>1.080706120214114</v>
+      </c>
+      <c r="M29">
+        <v>0.7711294673791712</v>
+      </c>
+      <c r="N29">
+        <v>0.7711294673791712</v>
+      </c>
+      <c r="O29">
+        <v>0.7387179482319025</v>
+      </c>
+      <c r="P29">
+        <v>0.9621217743382964</v>
+      </c>
+      <c r="Q29">
+        <v>0.9621217743382964</v>
+      </c>
+      <c r="R29">
+        <v>1.057617927817859</v>
+      </c>
+      <c r="S29">
+        <v>1.057617927817859</v>
+      </c>
+      <c r="T29">
+        <v>0.9785838134639055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8092285026258882</v>
+      </c>
+      <c r="D30">
+        <v>0.9477639318505913</v>
+      </c>
+      <c r="E30">
+        <v>1.094932337675389</v>
+      </c>
+      <c r="F30">
+        <v>0.8092285026258882</v>
+      </c>
+      <c r="G30">
+        <v>1.049514419152314</v>
+      </c>
+      <c r="H30">
+        <v>0.9477639318505913</v>
+      </c>
+      <c r="I30">
+        <v>0.8504949683173281</v>
+      </c>
+      <c r="J30">
+        <v>1.395004622711273</v>
+      </c>
+      <c r="K30">
+        <v>0.9477639318505913</v>
+      </c>
+      <c r="L30">
+        <v>1.094932337675389</v>
+      </c>
+      <c r="M30">
+        <v>0.9520804201506388</v>
+      </c>
+      <c r="N30">
+        <v>0.9520804201506388</v>
+      </c>
+      <c r="O30">
+        <v>0.9182186028728685</v>
+      </c>
+      <c r="P30">
+        <v>0.9506415907172897</v>
+      </c>
+      <c r="Q30">
+        <v>0.9506415907172897</v>
+      </c>
+      <c r="R30">
+        <v>0.9499221760006151</v>
+      </c>
+      <c r="S30">
+        <v>0.9499221760006151</v>
+      </c>
+      <c r="T30">
+        <v>1.024489797055464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8462820930223626</v>
+      </c>
+      <c r="D31">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="E31">
+        <v>1.105040345958041</v>
+      </c>
+      <c r="F31">
+        <v>0.8462820930223626</v>
+      </c>
+      <c r="G31">
+        <v>1.045330267330853</v>
+      </c>
+      <c r="H31">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="I31">
+        <v>0.8365868912391106</v>
+      </c>
+      <c r="J31">
+        <v>1.501664803511474</v>
+      </c>
+      <c r="K31">
+        <v>0.9110351298793471</v>
+      </c>
+      <c r="L31">
+        <v>1.105040345958041</v>
+      </c>
+      <c r="M31">
+        <v>0.9756612194902019</v>
+      </c>
+      <c r="N31">
+        <v>0.9756612194902019</v>
+      </c>
+      <c r="O31">
+        <v>0.9293031100731715</v>
+      </c>
+      <c r="P31">
+        <v>0.9541191896199169</v>
+      </c>
+      <c r="Q31">
+        <v>0.9541191896199169</v>
+      </c>
+      <c r="R31">
+        <v>0.9433481746847745</v>
+      </c>
+      <c r="S31">
+        <v>0.9433481746847745</v>
+      </c>
+      <c r="T31">
+        <v>1.040989921823531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.1179661653698631</v>
+      </c>
+      <c r="D32">
+        <v>1.723115233424657</v>
+      </c>
+      <c r="E32">
+        <v>1.07363912109589</v>
+      </c>
+      <c r="F32">
+        <v>0.1179661653698631</v>
+      </c>
+      <c r="G32">
+        <v>1.244543983561643</v>
+      </c>
+      <c r="H32">
+        <v>1.723115233424657</v>
+      </c>
+      <c r="I32">
+        <v>0.5033801578082192</v>
+      </c>
+      <c r="J32">
+        <v>0.9259040868493152</v>
+      </c>
+      <c r="K32">
+        <v>1.723115233424657</v>
+      </c>
+      <c r="L32">
+        <v>1.07363912109589</v>
+      </c>
+      <c r="M32">
+        <v>0.5958026432328767</v>
+      </c>
+      <c r="N32">
+        <v>0.5958026432328767</v>
+      </c>
+      <c r="O32">
+        <v>0.5649951480913242</v>
+      </c>
+      <c r="P32">
+        <v>0.9715735066301369</v>
+      </c>
+      <c r="Q32">
+        <v>0.9715735066301369</v>
+      </c>
+      <c r="R32">
+        <v>1.159458938328767</v>
+      </c>
+      <c r="S32">
+        <v>1.159458938328767</v>
+      </c>
+      <c r="T32">
+        <v>0.9314247913515979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.6527962733210528</v>
+      </c>
+      <c r="D33">
+        <v>0.992493214736842</v>
+      </c>
+      <c r="E33">
+        <v>1.048055814210526</v>
+      </c>
+      <c r="F33">
+        <v>0.6527962733210528</v>
+      </c>
+      <c r="G33">
+        <v>1.007523651578947</v>
+      </c>
+      <c r="H33">
+        <v>0.992493214736842</v>
+      </c>
+      <c r="I33">
+        <v>1.006359844052632</v>
+      </c>
+      <c r="J33">
+        <v>1.018800933</v>
+      </c>
+      <c r="K33">
+        <v>0.992493214736842</v>
+      </c>
+      <c r="L33">
+        <v>1.048055814210526</v>
+      </c>
+      <c r="M33">
+        <v>0.8504260437657896</v>
+      </c>
+      <c r="N33">
+        <v>0.8504260437657896</v>
+      </c>
+      <c r="O33">
+        <v>0.9024039771947369</v>
+      </c>
+      <c r="P33">
+        <v>0.8977817674228071</v>
+      </c>
+      <c r="Q33">
+        <v>0.8977817674228071</v>
+      </c>
+      <c r="R33">
+        <v>0.9214596292513159</v>
+      </c>
+      <c r="S33">
+        <v>0.9214596292513159</v>
+      </c>
+      <c r="T33">
+        <v>0.9543382884833332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.172567644563158</v>
+      </c>
+      <c r="D34">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="E34">
+        <v>1.165420102105263</v>
+      </c>
+      <c r="F34">
+        <v>1.172567644563158</v>
+      </c>
+      <c r="G34">
+        <v>1.011442208947368</v>
+      </c>
+      <c r="H34">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="I34">
+        <v>0.7932085985263159</v>
+      </c>
+      <c r="J34">
+        <v>1.875604258947368</v>
+      </c>
+      <c r="K34">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="L34">
+        <v>1.165420102105263</v>
+      </c>
+      <c r="M34">
+        <v>1.16899387333421</v>
+      </c>
+      <c r="N34">
+        <v>1.16899387333421</v>
+      </c>
+      <c r="O34">
+        <v>1.043732115064912</v>
+      </c>
+      <c r="P34">
+        <v>1.026899905907017</v>
+      </c>
+      <c r="Q34">
+        <v>1.026899905907017</v>
+      </c>
+      <c r="R34">
+        <v>0.955852922193421</v>
+      </c>
+      <c r="S34">
+        <v>0.955852922193421</v>
+      </c>
+      <c r="T34">
+        <v>1.126825797357017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4088203095428154</v>
+      </c>
+      <c r="D35">
+        <v>0.62192925267719</v>
+      </c>
+      <c r="E35">
+        <v>1.351287167360659</v>
+      </c>
+      <c r="F35">
+        <v>0.4088203095428154</v>
+      </c>
+      <c r="G35">
+        <v>1.11688761882459</v>
+      </c>
+      <c r="H35">
+        <v>0.62192925267719</v>
+      </c>
+      <c r="I35">
+        <v>0.4489980563536347</v>
+      </c>
+      <c r="J35">
+        <v>3.029007408964278</v>
+      </c>
+      <c r="K35">
+        <v>0.62192925267719</v>
+      </c>
+      <c r="L35">
+        <v>1.351287167360659</v>
+      </c>
+      <c r="M35">
+        <v>0.8800537384517372</v>
+      </c>
+      <c r="N35">
+        <v>0.8800537384517372</v>
+      </c>
+      <c r="O35">
+        <v>0.7363685110857029</v>
+      </c>
+      <c r="P35">
+        <v>0.7940122431935549</v>
+      </c>
+      <c r="Q35">
+        <v>0.7940122431935549</v>
+      </c>
+      <c r="R35">
+        <v>0.7509914955644637</v>
+      </c>
+      <c r="S35">
+        <v>0.7509914955644637</v>
+      </c>
+      <c r="T35">
+        <v>1.162821635620528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000537369117272</v>
+      </c>
+      <c r="D36">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="E36">
+        <v>0.9977475847104087</v>
+      </c>
+      <c r="F36">
+        <v>1.000537369117272</v>
+      </c>
+      <c r="G36">
+        <v>0.9993568909511842</v>
+      </c>
+      <c r="H36">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="I36">
+        <v>0.9999215746775013</v>
+      </c>
+      <c r="J36">
+        <v>0.9997067563055764</v>
+      </c>
+      <c r="K36">
+        <v>1.004329775304099</v>
+      </c>
+      <c r="L36">
+        <v>0.9977475847104087</v>
+      </c>
+      <c r="M36">
+        <v>0.9991424769138402</v>
+      </c>
+      <c r="N36">
+        <v>0.9991424769138402</v>
+      </c>
+      <c r="O36">
+        <v>0.9994021761683939</v>
+      </c>
+      <c r="P36">
+        <v>1.00087157637726</v>
+      </c>
+      <c r="Q36">
+        <v>1.00087157637726</v>
+      </c>
+      <c r="R36">
+        <v>1.00173612610897</v>
+      </c>
+      <c r="S36">
+        <v>1.00173612610897</v>
+      </c>
+      <c r="T36">
+        <v>1.000266658511007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9989936725768289</v>
+      </c>
+      <c r="D37">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="E37">
+        <v>1.003956554590018</v>
+      </c>
+      <c r="F37">
+        <v>0.9989936725768289</v>
+      </c>
+      <c r="G37">
+        <v>1.001051900779052</v>
+      </c>
+      <c r="H37">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="I37">
+        <v>0.998701914594357</v>
+      </c>
+      <c r="J37">
+        <v>1.007247407576925</v>
+      </c>
+      <c r="K37">
+        <v>0.9920823728431052</v>
+      </c>
+      <c r="L37">
+        <v>1.003956554590018</v>
+      </c>
+      <c r="M37">
+        <v>1.001475113583424</v>
+      </c>
+      <c r="N37">
+        <v>1.001475113583424</v>
+      </c>
+      <c r="O37">
+        <v>1.000550713920402</v>
+      </c>
+      <c r="P37">
+        <v>0.9983442000033175</v>
+      </c>
+      <c r="Q37">
+        <v>0.9983442000033174</v>
+      </c>
+      <c r="R37">
+        <v>0.9967787432132643</v>
+      </c>
+      <c r="S37">
+        <v>0.9967787432132643</v>
+      </c>
+      <c r="T37">
+        <v>1.000338970493381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9875550466523414</v>
+      </c>
+      <c r="D38">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="E38">
+        <v>0.9944702679845474</v>
+      </c>
+      <c r="F38">
+        <v>0.9875550466523414</v>
+      </c>
+      <c r="G38">
+        <v>1.001049987432584</v>
+      </c>
+      <c r="H38">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="I38">
+        <v>0.9927644007135815</v>
+      </c>
+      <c r="J38">
+        <v>0.9958611002984741</v>
+      </c>
+      <c r="K38">
+        <v>1.026209289655784</v>
+      </c>
+      <c r="L38">
+        <v>0.9944702679845474</v>
+      </c>
+      <c r="M38">
+        <v>0.9910126573184443</v>
+      </c>
+      <c r="N38">
+        <v>0.9910126573184443</v>
+      </c>
+      <c r="O38">
+        <v>0.9915965717834901</v>
+      </c>
+      <c r="P38">
+        <v>1.002744868097557</v>
+      </c>
+      <c r="Q38">
+        <v>1.002744868097557</v>
+      </c>
+      <c r="R38">
+        <v>1.008610973487114</v>
+      </c>
+      <c r="S38">
+        <v>1.008610973487114</v>
+      </c>
+      <c r="T38">
+        <v>0.9996516821228854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9697104786858455</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.092928959753906</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9706434533662697</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9697104786858455</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002492184399208</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.092928959753906</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9821440969129421</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9675153057985557</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.092928959753906</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9706434533662697</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9701769660260575</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9701769660260575</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.974166009655019</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.011094297268674</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.011094297268674</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.031552962889982</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.031552962889982</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9975724131527878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8542902994516213</v>
+      </c>
+      <c r="D40">
+        <v>1.19770056894135</v>
+      </c>
+      <c r="E40">
+        <v>0.9652419744726308</v>
+      </c>
+      <c r="F40">
+        <v>0.8542902994516213</v>
+      </c>
+      <c r="G40">
+        <v>1.026841839867632</v>
+      </c>
+      <c r="H40">
+        <v>1.19770056894135</v>
+      </c>
+      <c r="I40">
+        <v>0.9314928562200339</v>
+      </c>
+      <c r="J40">
+        <v>0.9432593134526215</v>
+      </c>
+      <c r="K40">
+        <v>1.19770056894135</v>
+      </c>
+      <c r="L40">
+        <v>0.9652419744726308</v>
+      </c>
+      <c r="M40">
+        <v>0.909766136962126</v>
+      </c>
+      <c r="N40">
+        <v>0.909766136962126</v>
+      </c>
+      <c r="O40">
+        <v>0.917008376714762</v>
+      </c>
+      <c r="P40">
+        <v>1.005744280955201</v>
+      </c>
+      <c r="Q40">
+        <v>1.005744280955201</v>
+      </c>
+      <c r="R40">
+        <v>1.053733352951738</v>
+      </c>
+      <c r="S40">
+        <v>1.053733352951738</v>
+      </c>
+      <c r="T40">
+        <v>0.9864711420676482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.003147462347323</v>
+      </c>
+      <c r="D41">
+        <v>0.9885979567184442</v>
+      </c>
+      <c r="E41">
+        <v>1.005875697562692</v>
+      </c>
+      <c r="F41">
+        <v>1.003147462347323</v>
+      </c>
+      <c r="G41">
+        <v>1.001727942038038</v>
+      </c>
+      <c r="H41">
+        <v>0.9885979567184442</v>
+      </c>
+      <c r="I41">
+        <v>0.9899845248399314</v>
+      </c>
+      <c r="J41">
+        <v>1.042191471509175</v>
+      </c>
+      <c r="K41">
+        <v>0.9885979567184442</v>
+      </c>
+      <c r="L41">
+        <v>1.005875697562692</v>
+      </c>
+      <c r="M41">
+        <v>1.004511579955008</v>
+      </c>
+      <c r="N41">
+        <v>1.004511579955008</v>
+      </c>
+      <c r="O41">
+        <v>0.9996692282499823</v>
+      </c>
+      <c r="P41">
+        <v>0.9992070388761531</v>
+      </c>
+      <c r="Q41">
+        <v>0.9992070388761531</v>
+      </c>
+      <c r="R41">
+        <v>0.996554768336726</v>
+      </c>
+      <c r="S41">
+        <v>0.996554768336726</v>
+      </c>
+      <c r="T41">
+        <v>1.005254175835934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.5007390638631299</v>
+      </c>
+      <c r="D42">
+        <v>1.273829278870745</v>
+      </c>
+      <c r="E42">
+        <v>1.073465433072265</v>
+      </c>
+      <c r="F42">
+        <v>0.5007390638631299</v>
+      </c>
+      <c r="G42">
+        <v>1.126045564755967</v>
+      </c>
+      <c r="H42">
+        <v>1.273829278870745</v>
+      </c>
+      <c r="I42">
+        <v>0.71022360970722</v>
+      </c>
+      <c r="J42">
+        <v>1.223413054579073</v>
+      </c>
+      <c r="K42">
+        <v>1.273829278870745</v>
+      </c>
+      <c r="L42">
+        <v>1.073465433072265</v>
+      </c>
+      <c r="M42">
+        <v>0.7871022484676977</v>
+      </c>
+      <c r="N42">
+        <v>0.7871022484676977</v>
+      </c>
+      <c r="O42">
+        <v>0.7614760355475384</v>
+      </c>
+      <c r="P42">
+        <v>0.9493445919353801</v>
+      </c>
+      <c r="Q42">
+        <v>0.9493445919353801</v>
+      </c>
+      <c r="R42">
+        <v>1.030465763669221</v>
+      </c>
+      <c r="S42">
+        <v>1.030465763669221</v>
+      </c>
+      <c r="T42">
+        <v>0.9846193341413999</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.030665560325617</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="D3">
-        <v>0.9636997024726152</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="E3">
-        <v>1.003435684597262</v>
+        <v>1.002027184839077</v>
       </c>
       <c r="F3">
-        <v>1.030665560325617</v>
+        <v>0.9966489879629384</v>
       </c>
       <c r="G3">
-        <v>0.9994232970496859</v>
+        <v>1.000721458060404</v>
       </c>
       <c r="H3">
-        <v>0.9780617446844125</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="I3">
-        <v>1.010408849140742</v>
+        <v>0.9973548100447442</v>
       </c>
       <c r="J3">
-        <v>0.9636997024726152</v>
+        <v>1.009068096678596</v>
       </c>
       <c r="K3">
-        <v>1.030665560325617</v>
+        <v>0.9979265025937142</v>
       </c>
       <c r="L3">
-        <v>1.003435684597262</v>
+        <v>1.002027184839077</v>
       </c>
       <c r="M3">
-        <v>0.9835676935349387</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="N3">
-        <v>0.9835676935349387</v>
+        <v>0.9993380864010077</v>
       </c>
       <c r="O3">
-        <v>0.98173237725143</v>
+        <v>0.9986769942822532</v>
       </c>
       <c r="P3">
-        <v>0.9992669824651648</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="Q3">
-        <v>0.9992669824651648</v>
+        <v>0.9988675584652432</v>
       </c>
       <c r="R3">
-        <v>1.007116626930278</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="S3">
-        <v>1.007116626930278</v>
+        <v>0.998632294497361</v>
       </c>
       <c r="T3">
-        <v>0.9976158063783892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000624506696579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.057589404769768</v>
+        <v>0.8542902994516213</v>
       </c>
       <c r="D4">
-        <v>0.9287680899144258</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="E4">
-        <v>1.006958270925948</v>
+        <v>0.9652419744726308</v>
       </c>
       <c r="F4">
-        <v>1.057589404769768</v>
+        <v>0.8542902994516213</v>
       </c>
       <c r="G4">
-        <v>1.000379497986021</v>
+        <v>1.026841839867632</v>
       </c>
       <c r="H4">
-        <v>0.9580765361046436</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="I4">
-        <v>1.019907759038422</v>
+        <v>0.9314928562200339</v>
       </c>
       <c r="J4">
-        <v>0.9287680899144258</v>
+        <v>0.9432593134526215</v>
       </c>
       <c r="K4">
-        <v>1.057589404769768</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="L4">
-        <v>1.006958270925948</v>
+        <v>0.9652419744726308</v>
       </c>
       <c r="M4">
-        <v>0.9678631804201869</v>
+        <v>0.909766136962126</v>
       </c>
       <c r="N4">
-        <v>0.9678631804201869</v>
+        <v>0.909766136962126</v>
       </c>
       <c r="O4">
-        <v>0.9646009656483391</v>
+        <v>0.917008376714762</v>
       </c>
       <c r="P4">
-        <v>0.9977719218700472</v>
+        <v>1.005744280955201</v>
       </c>
       <c r="Q4">
-        <v>0.9977719218700472</v>
+        <v>1.005744280955201</v>
       </c>
       <c r="R4">
-        <v>1.012726292594977</v>
+        <v>1.053733352951738</v>
       </c>
       <c r="S4">
-        <v>1.012726292594977</v>
+        <v>1.053733352951738</v>
       </c>
       <c r="T4">
-        <v>0.9952799264565381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9864711420676482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.11046205090115</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="D5">
-        <v>0.8661871031152221</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="E5">
-        <v>1.01335545698</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="F5">
-        <v>1.11046205090115</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="G5">
-        <v>1.00268732110723</v>
+        <v>1.056380666304035</v>
       </c>
       <c r="H5">
-        <v>0.9194966314945501</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="I5">
-        <v>1.037833346510308</v>
+        <v>0.821878835117436</v>
       </c>
       <c r="J5">
-        <v>0.8661871031152221</v>
+        <v>1.475175149883283</v>
       </c>
       <c r="K5">
-        <v>1.11046205090115</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="L5">
-        <v>1.01335545698</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="M5">
-        <v>0.939771280047611</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="N5">
-        <v>0.939771280047611</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="O5">
-        <v>0.9330130638632573</v>
+        <v>0.9030629669439495</v>
       </c>
       <c r="P5">
-        <v>0.9966682036654575</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="Q5">
-        <v>0.9966682036654575</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="R5">
-        <v>1.025116665474381</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="S5">
-        <v>1.025116665474381</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="T5">
-        <v>0.9916703183514103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.031132969805789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.167589023172376</v>
+        <v>0.4088203095428154</v>
       </c>
       <c r="D6">
-        <v>0.8087756810991543</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="E6">
-        <v>1.026838707859269</v>
+        <v>1.351287167360659</v>
       </c>
       <c r="F6">
-        <v>1.167589023172376</v>
+        <v>0.4088203095428154</v>
       </c>
       <c r="G6">
-        <v>0.996517047193193</v>
+        <v>1.11688761882459</v>
       </c>
       <c r="H6">
-        <v>0.8786428196161558</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="I6">
-        <v>1.056875636573117</v>
+        <v>0.4489980563536347</v>
       </c>
       <c r="J6">
-        <v>0.8087756810991543</v>
+        <v>3.029007408964278</v>
       </c>
       <c r="K6">
-        <v>1.167589023172376</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="L6">
-        <v>1.026838707859269</v>
+        <v>1.351287167360659</v>
       </c>
       <c r="M6">
-        <v>0.9178071944792119</v>
+        <v>0.8800537384517372</v>
       </c>
       <c r="N6">
-        <v>0.9178071944792119</v>
+        <v>0.8800537384517372</v>
       </c>
       <c r="O6">
-        <v>0.9047524028581932</v>
+        <v>0.7363685110857029</v>
       </c>
       <c r="P6">
-        <v>1.0010678040436</v>
+        <v>0.7940122431935549</v>
       </c>
       <c r="Q6">
-        <v>1.0010678040436</v>
+        <v>0.7940122431935549</v>
       </c>
       <c r="R6">
-        <v>1.042698108825794</v>
+        <v>0.7509914955644637</v>
       </c>
       <c r="S6">
-        <v>1.042698108825794</v>
+        <v>0.7509914955644637</v>
       </c>
       <c r="T6">
-        <v>0.9892064859188775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.162821635620528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992115204602898</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="D7">
-        <v>0.9987522927470625</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="E7">
-        <v>1.000777402467684</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="F7">
-        <v>0.9992115204602898</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="G7">
-        <v>1.003762851579119</v>
+        <v>1.01131347839317</v>
       </c>
       <c r="H7">
-        <v>0.9989120439352186</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="I7">
-        <v>1.000272062851771</v>
+        <v>0.9764273620388224</v>
       </c>
       <c r="J7">
-        <v>0.9987522927470625</v>
+        <v>1.00069976678915</v>
       </c>
       <c r="K7">
-        <v>0.9992115204602898</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="L7">
-        <v>1.000777402467684</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="M7">
-        <v>0.9997648476073734</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="N7">
-        <v>0.9997648476073734</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="O7">
-        <v>0.9994805797166552</v>
+        <v>0.9800417130515955</v>
       </c>
       <c r="P7">
-        <v>0.9995804052250122</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="Q7">
-        <v>0.9995804052250122</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="R7">
-        <v>0.9994881840338317</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="S7">
-        <v>0.9994881840338317</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="T7">
-        <v>1.000281362340191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9972907221563417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9979265025937146</v>
+        <v>0.9989936725768289</v>
       </c>
       <c r="D8">
-        <v>0.9966489879629391</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="E8">
-        <v>1.002027184839077</v>
+        <v>1.003956554590018</v>
       </c>
       <c r="F8">
-        <v>0.9979265025937146</v>
+        <v>0.9989936725768289</v>
       </c>
       <c r="G8">
-        <v>1.009068096678595</v>
+        <v>1.001051900779052</v>
       </c>
       <c r="H8">
-        <v>0.9973548100447442</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="I8">
-        <v>1.000721458060404</v>
+        <v>0.998701914594357</v>
       </c>
       <c r="J8">
-        <v>0.9966489879629391</v>
+        <v>1.007247407576925</v>
       </c>
       <c r="K8">
-        <v>0.9979265025937146</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="L8">
-        <v>1.002027184839077</v>
+        <v>1.003956554590018</v>
       </c>
       <c r="M8">
-        <v>0.999338086401008</v>
+        <v>1.001475113583424</v>
       </c>
       <c r="N8">
-        <v>0.999338086401008</v>
+        <v>1.001475113583424</v>
       </c>
       <c r="O8">
-        <v>0.9986769942822534</v>
+        <v>1.000550713920402</v>
       </c>
       <c r="P8">
-        <v>0.9988675584652436</v>
+        <v>0.9983442000033175</v>
       </c>
       <c r="Q8">
-        <v>0.9988675584652436</v>
+        <v>0.9983442000033174</v>
       </c>
       <c r="R8">
-        <v>0.9986322944973614</v>
+        <v>0.9967787432132643</v>
       </c>
       <c r="S8">
-        <v>0.9986322944973614</v>
+        <v>0.9967787432132643</v>
       </c>
       <c r="T8">
-        <v>1.000624506696579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000338970493381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9970375576551098</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="D9">
-        <v>0.9953988062881148</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="E9">
-        <v>1.003229852548315</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="F9">
-        <v>0.9970375576551098</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="G9">
-        <v>1.011476087172007</v>
+        <v>1.019907759038423</v>
       </c>
       <c r="H9">
-        <v>0.9962025018746303</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="I9">
-        <v>1.001202553763713</v>
+        <v>0.9580765361046438</v>
       </c>
       <c r="J9">
-        <v>0.9953988062881148</v>
+        <v>1.000379497986021</v>
       </c>
       <c r="K9">
-        <v>0.9970375576551098</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="L9">
-        <v>1.003229852548315</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="M9">
-        <v>0.999314329418215</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="N9">
-        <v>0.999314329418215</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="O9">
-        <v>0.9982770535703533</v>
+        <v>0.9646009656483393</v>
       </c>
       <c r="P9">
-        <v>0.9985554054971799</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="Q9">
-        <v>0.9985554054971799</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="R9">
-        <v>0.9981759435366624</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="S9">
-        <v>0.9981759435366624</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="T9">
-        <v>1.000757893216982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9952799264565382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9938064079887217</v>
+        <v>0.4187654292711454</v>
       </c>
       <c r="D10">
-        <v>0.9899204000300973</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="E10">
-        <v>1.006555239631768</v>
+        <v>1.356645872143831</v>
       </c>
       <c r="F10">
-        <v>0.9938064079887217</v>
+        <v>0.4187654292711454</v>
       </c>
       <c r="G10">
-        <v>1.02577673217156</v>
+        <v>1.116500417268677</v>
       </c>
       <c r="H10">
-        <v>0.991853546058705</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="I10">
-        <v>1.002416504897684</v>
+        <v>0.4400076963126117</v>
       </c>
       <c r="J10">
-        <v>0.9899204000300973</v>
+        <v>3.077174756632723</v>
       </c>
       <c r="K10">
-        <v>0.9938064079887217</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="L10">
-        <v>1.006555239631768</v>
+        <v>1.356645872143831</v>
       </c>
       <c r="M10">
-        <v>0.9982378198309325</v>
+        <v>0.8877056507074884</v>
       </c>
       <c r="N10">
-        <v>0.9982378198309325</v>
+        <v>0.8877056507074884</v>
       </c>
       <c r="O10">
-        <v>0.9961097285735233</v>
+        <v>0.7384729992425295</v>
       </c>
       <c r="P10">
-        <v>0.9967606825501956</v>
+        <v>0.7946811046958905</v>
       </c>
       <c r="Q10">
-        <v>0.9967606825501956</v>
+        <v>0.7946811046958905</v>
       </c>
       <c r="R10">
-        <v>0.9960221139098271</v>
+        <v>0.7481688316900916</v>
       </c>
       <c r="S10">
-        <v>0.9960221139098271</v>
+        <v>0.7481688316900916</v>
       </c>
       <c r="T10">
-        <v>1.001721471796422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.169621030716947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9897706853357938</v>
+        <v>0.8158320085190742</v>
       </c>
       <c r="D11">
-        <v>0.9825253590713676</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="E11">
-        <v>1.011235037801452</v>
+        <v>0.9853541814130723</v>
       </c>
       <c r="F11">
-        <v>0.9897706853357938</v>
+        <v>0.8158320085190742</v>
       </c>
       <c r="G11">
-        <v>1.040078655043109</v>
+        <v>1.044406158220574</v>
       </c>
       <c r="H11">
-        <v>0.9866968506904967</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="I11">
-        <v>1.004269724335837</v>
+        <v>0.8811374952871768</v>
       </c>
       <c r="J11">
-        <v>0.9825253590713676</v>
+        <v>1.041717567874738</v>
       </c>
       <c r="K11">
-        <v>0.9897706853357938</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="L11">
-        <v>1.011235037801452</v>
+        <v>0.9853541814130723</v>
       </c>
       <c r="M11">
-        <v>0.9968801984364097</v>
+        <v>0.9005930949660732</v>
       </c>
       <c r="N11">
-        <v>0.9968801984364097</v>
+        <v>0.9005930949660732</v>
       </c>
       <c r="O11">
-        <v>0.993485749187772</v>
+        <v>0.8941078950731077</v>
       </c>
       <c r="P11">
-        <v>0.9945103607362045</v>
+        <v>1.001654068488999</v>
       </c>
       <c r="Q11">
-        <v>0.9945103607362045</v>
+        <v>1.001654068488999</v>
       </c>
       <c r="R11">
-        <v>0.9933254418861018</v>
+        <v>1.052184555250462</v>
       </c>
       <c r="S11">
-        <v>0.9933254418861018</v>
+        <v>1.052184555250462</v>
       </c>
       <c r="T11">
-        <v>1.002429385379676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9953705711415809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.394717510638622</v>
+        <v>0.8449531898185283</v>
       </c>
       <c r="D12">
-        <v>1.026524799268079</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="E12">
-        <v>0.7723368944038363</v>
+        <v>1.122897054778947</v>
       </c>
       <c r="F12">
-        <v>1.394717510638622</v>
+        <v>0.8449531898185283</v>
       </c>
       <c r="G12">
-        <v>0.405931428946273</v>
+        <v>1.045319816410526</v>
       </c>
       <c r="H12">
-        <v>1.113215078843633</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="I12">
-        <v>0.9595643303470249</v>
+        <v>0.8198398926768428</v>
       </c>
       <c r="J12">
-        <v>1.026524799268079</v>
+        <v>1.603718631145259</v>
       </c>
       <c r="K12">
-        <v>1.394717510638622</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="L12">
-        <v>0.7723368944038363</v>
+        <v>1.122897054778947</v>
       </c>
       <c r="M12">
-        <v>0.8994308468359578</v>
+        <v>0.9839251222987374</v>
       </c>
       <c r="N12">
-        <v>0.8994308468359578</v>
+        <v>0.9839251222987374</v>
       </c>
       <c r="O12">
-        <v>0.9706922575051831</v>
+        <v>0.9292300457581059</v>
       </c>
       <c r="P12">
-        <v>1.064526401436846</v>
+        <v>0.9473723933465275</v>
       </c>
       <c r="Q12">
-        <v>1.064526401436846</v>
+        <v>0.9473723933465275</v>
       </c>
       <c r="R12">
-        <v>1.14707417873729</v>
+        <v>0.9290960288704224</v>
       </c>
       <c r="S12">
-        <v>1.14707417873729</v>
+        <v>0.9290960288704224</v>
       </c>
       <c r="T12">
-        <v>0.9453816737412448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.051832586712035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7677380426660105</v>
+        <v>1.229849228596148</v>
       </c>
       <c r="D13">
-        <v>1.126509680406857</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="E13">
-        <v>1.093394366662893</v>
+        <v>0.9318305315020518</v>
       </c>
       <c r="F13">
-        <v>0.7677380426660105</v>
+        <v>1.229849228596148</v>
       </c>
       <c r="G13">
-        <v>1.096093967604579</v>
+        <v>0.9472156659575919</v>
       </c>
       <c r="H13">
-        <v>1.031507248156779</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="I13">
-        <v>0.9937155478589205</v>
+        <v>1.120110028022272</v>
       </c>
       <c r="J13">
-        <v>1.126509680406857</v>
+        <v>0.7952578626060484</v>
       </c>
       <c r="K13">
-        <v>0.7677380426660105</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="L13">
-        <v>1.093394366662893</v>
+        <v>0.9318305315020518</v>
       </c>
       <c r="M13">
-        <v>1.109952023534875</v>
+        <v>1.0808398800491</v>
       </c>
       <c r="N13">
-        <v>1.109952023534875</v>
+        <v>1.0808398800491</v>
       </c>
       <c r="O13">
-        <v>1.08380376507551</v>
+        <v>1.093929929373491</v>
       </c>
       <c r="P13">
-        <v>0.995880696578587</v>
+        <v>1.048293103891781</v>
       </c>
       <c r="Q13">
-        <v>0.995880696578587</v>
+        <v>1.048293103891781</v>
       </c>
       <c r="R13">
-        <v>0.938845033100443</v>
+        <v>1.032019715813122</v>
       </c>
       <c r="S13">
-        <v>0.938845033100443</v>
+        <v>1.032019715813122</v>
       </c>
       <c r="T13">
-        <v>1.018159808892673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001243811376876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9369852750566613</v>
+        <v>0.002978201699999996</v>
       </c>
       <c r="D14">
-        <v>1.405692187368071</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="E14">
-        <v>0.8166937730686347</v>
+        <v>1.609013300000001</v>
       </c>
       <c r="F14">
-        <v>0.9369852750566613</v>
+        <v>0.002978201699999996</v>
       </c>
       <c r="G14">
-        <v>0.3071564047415812</v>
+        <v>1.185680000000001</v>
       </c>
       <c r="H14">
-        <v>1.397995224316289</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="I14">
-        <v>0.8474466034107666</v>
+        <v>0.04447159299999995</v>
       </c>
       <c r="J14">
-        <v>1.405692187368071</v>
+        <v>4.664584400000003</v>
       </c>
       <c r="K14">
-        <v>0.9369852750566613</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="L14">
-        <v>0.8166937730686347</v>
+        <v>1.609013300000001</v>
       </c>
       <c r="M14">
-        <v>1.111192980218353</v>
+        <v>0.8059957508500003</v>
       </c>
       <c r="N14">
-        <v>1.111192980218353</v>
+        <v>0.8059957508500003</v>
       </c>
       <c r="O14">
-        <v>1.206793728250998</v>
+        <v>0.5521543649000001</v>
       </c>
       <c r="P14">
-        <v>1.053123745164456</v>
+        <v>0.6368397172333337</v>
       </c>
       <c r="Q14">
-        <v>1.053123745164456</v>
+        <v>0.6368397172333337</v>
       </c>
       <c r="R14">
-        <v>1.024089127637507</v>
+        <v>0.5522617004250003</v>
       </c>
       <c r="S14">
-        <v>1.024089127637507</v>
+        <v>0.5522617004250003</v>
       </c>
       <c r="T14">
-        <v>0.9519949113270006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.300875857450001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9734808885049026</v>
+        <v>0.46313886</v>
       </c>
       <c r="D15">
-        <v>1.466913630664787</v>
+        <v>0.38318732</v>
       </c>
       <c r="E15">
-        <v>0.9395156794848313</v>
+        <v>1.5930668</v>
       </c>
       <c r="F15">
-        <v>0.9734808885049026</v>
+        <v>0.46313886</v>
       </c>
       <c r="G15">
-        <v>0.9564282063364896</v>
+        <v>1.1606268</v>
       </c>
       <c r="H15">
-        <v>1.057654262898629</v>
+        <v>0.38318732</v>
       </c>
       <c r="I15">
-        <v>0.9499528938458657</v>
+        <v>0.93136898</v>
       </c>
       <c r="J15">
-        <v>1.466913630664787</v>
+        <v>0.71770318</v>
       </c>
       <c r="K15">
-        <v>0.9734808885049026</v>
+        <v>0.38318732</v>
       </c>
       <c r="L15">
-        <v>0.9395156794848313</v>
+        <v>1.5930668</v>
       </c>
       <c r="M15">
-        <v>1.203214655074809</v>
+        <v>1.02810283</v>
       </c>
       <c r="N15">
-        <v>1.203214655074809</v>
+        <v>1.02810283</v>
       </c>
       <c r="O15">
-        <v>1.154694524349416</v>
+        <v>0.9958582133333334</v>
       </c>
       <c r="P15">
-        <v>1.12663673288484</v>
+        <v>0.8131309933333334</v>
       </c>
       <c r="Q15">
-        <v>1.12663673288484</v>
+        <v>0.8131309933333334</v>
       </c>
       <c r="R15">
-        <v>1.088347771789856</v>
+        <v>0.7056450750000001</v>
       </c>
       <c r="S15">
-        <v>1.088347771789856</v>
+        <v>0.7056450750000001</v>
       </c>
       <c r="T15">
-        <v>1.057324260289251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.8748486566666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004329775304098</v>
+        <v>0.023300756</v>
       </c>
       <c r="D16">
-        <v>1.000537369117272</v>
+        <v>3.4428622</v>
       </c>
       <c r="E16">
-        <v>0.9977475847104086</v>
+        <v>0.42160412</v>
       </c>
       <c r="F16">
-        <v>1.004329775304098</v>
+        <v>0.023300756</v>
       </c>
       <c r="G16">
-        <v>0.9997067563055767</v>
+        <v>1.134</v>
       </c>
       <c r="H16">
-        <v>0.9999215746775012</v>
+        <v>3.4428622</v>
       </c>
       <c r="I16">
-        <v>0.9993568909511842</v>
+        <v>0.39134565</v>
       </c>
       <c r="J16">
-        <v>1.000537369117272</v>
+        <v>0.21380688</v>
       </c>
       <c r="K16">
-        <v>1.004329775304098</v>
+        <v>3.4428622</v>
       </c>
       <c r="L16">
-        <v>0.9977475847104086</v>
+        <v>0.42160412</v>
       </c>
       <c r="M16">
-        <v>0.9991424769138404</v>
+        <v>0.222452438</v>
       </c>
       <c r="N16">
-        <v>0.9991424769138404</v>
+        <v>0.222452438</v>
       </c>
       <c r="O16">
-        <v>0.999402176168394</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P16">
-        <v>1.00087157637726</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q16">
-        <v>1.00087157637726</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R16">
-        <v>1.001736126108969</v>
+        <v>1.832657319</v>
       </c>
       <c r="S16">
-        <v>1.001736126108969</v>
+        <v>1.832657319</v>
       </c>
       <c r="T16">
-        <v>1.000266658511007</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9920823728431052</v>
+        <v>1.3299871</v>
       </c>
       <c r="D17">
-        <v>0.9989936725768293</v>
+        <v>0.29571039</v>
       </c>
       <c r="E17">
-        <v>1.003956554590018</v>
+        <v>1.086796</v>
       </c>
       <c r="F17">
-        <v>0.9920823728431052</v>
+        <v>1.3299871</v>
       </c>
       <c r="G17">
-        <v>1.007247407576925</v>
+        <v>0.806712</v>
       </c>
       <c r="H17">
-        <v>0.998701914594357</v>
+        <v>0.29571039</v>
       </c>
       <c r="I17">
-        <v>1.001051900779052</v>
+        <v>1.5878593</v>
       </c>
       <c r="J17">
-        <v>0.9989936725768293</v>
+        <v>0.2191714</v>
       </c>
       <c r="K17">
-        <v>0.9920823728431052</v>
+        <v>0.29571039</v>
       </c>
       <c r="L17">
-        <v>1.003956554590018</v>
+        <v>1.086796</v>
       </c>
       <c r="M17">
-        <v>1.001475113583424</v>
+        <v>1.20839155</v>
       </c>
       <c r="N17">
-        <v>1.001475113583424</v>
+        <v>1.20839155</v>
       </c>
       <c r="O17">
-        <v>1.000550713920402</v>
+        <v>1.3348808</v>
       </c>
       <c r="P17">
-        <v>0.9983442000033175</v>
+        <v>0.9041644966666667</v>
       </c>
       <c r="Q17">
-        <v>0.9983442000033175</v>
+        <v>0.9041644966666667</v>
       </c>
       <c r="R17">
-        <v>0.9967787432132644</v>
+        <v>0.75205097</v>
       </c>
       <c r="S17">
-        <v>0.9967787432132644</v>
+        <v>0.75205097</v>
       </c>
       <c r="T17">
-        <v>1.000338970493381</v>
+        <v>0.8877060316666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026209289655784</v>
+        <v>0.1179661653698631</v>
       </c>
       <c r="D18">
-        <v>0.9875550466523418</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="E18">
-        <v>0.9944702679845474</v>
+        <v>1.07363912109589</v>
       </c>
       <c r="F18">
-        <v>1.026209289655784</v>
+        <v>0.1179661653698631</v>
       </c>
       <c r="G18">
-        <v>0.9958611002984744</v>
+        <v>1.244543983561643</v>
       </c>
       <c r="H18">
-        <v>0.9927644007135815</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="I18">
-        <v>1.001049987432583</v>
+        <v>0.5033801578082192</v>
       </c>
       <c r="J18">
-        <v>0.9875550466523418</v>
+        <v>0.9259040868493152</v>
       </c>
       <c r="K18">
-        <v>1.026209289655784</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="L18">
-        <v>0.9944702679845474</v>
+        <v>1.07363912109589</v>
       </c>
       <c r="M18">
-        <v>0.9910126573184446</v>
+        <v>0.5958026432328767</v>
       </c>
       <c r="N18">
-        <v>0.9910126573184446</v>
+        <v>0.5958026432328767</v>
       </c>
       <c r="O18">
-        <v>0.9915965717834903</v>
+        <v>0.5649951480913242</v>
       </c>
       <c r="P18">
-        <v>1.002744868097558</v>
+        <v>0.9715735066301369</v>
       </c>
       <c r="Q18">
-        <v>1.002744868097558</v>
+        <v>0.9715735066301369</v>
       </c>
       <c r="R18">
-        <v>1.008610973487114</v>
+        <v>1.159458938328767</v>
       </c>
       <c r="S18">
-        <v>1.008610973487114</v>
+        <v>1.159458938328767</v>
       </c>
       <c r="T18">
-        <v>0.9996516821228854</v>
+        <v>0.9314247913515979</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.092928959753906</v>
+        <v>0.6527962733210528</v>
       </c>
       <c r="D19">
-        <v>0.9697104786858455</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="E19">
-        <v>0.9706434533662697</v>
+        <v>1.048055814210526</v>
       </c>
       <c r="F19">
-        <v>1.092928959753906</v>
+        <v>0.6527962733210528</v>
       </c>
       <c r="G19">
-        <v>0.9675153057985557</v>
+        <v>1.007523651578947</v>
       </c>
       <c r="H19">
-        <v>0.9821440969129421</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="I19">
-        <v>1.002492184399208</v>
+        <v>1.006359844052632</v>
       </c>
       <c r="J19">
-        <v>0.9697104786858455</v>
+        <v>1.018800933</v>
       </c>
       <c r="K19">
-        <v>1.092928959753906</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="L19">
-        <v>0.9706434533662697</v>
+        <v>1.048055814210526</v>
       </c>
       <c r="M19">
-        <v>0.9701769660260575</v>
+        <v>0.8504260437657896</v>
       </c>
       <c r="N19">
-        <v>0.9701769660260575</v>
+        <v>0.8504260437657896</v>
       </c>
       <c r="O19">
-        <v>0.974166009655019</v>
+        <v>0.9024039771947369</v>
       </c>
       <c r="P19">
-        <v>1.011094297268674</v>
+        <v>0.8977817674228071</v>
       </c>
       <c r="Q19">
-        <v>1.011094297268674</v>
+        <v>0.8977817674228071</v>
       </c>
       <c r="R19">
-        <v>1.031552962889982</v>
+        <v>0.9214596292513159</v>
       </c>
       <c r="S19">
-        <v>1.031552962889982</v>
+        <v>0.9214596292513159</v>
       </c>
       <c r="T19">
-        <v>0.9975724131527878</v>
+        <v>0.9543382884833332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.172567644563158</v>
+      </c>
+      <c r="D20">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="E20">
+        <v>1.165420102105263</v>
+      </c>
+      <c r="F20">
+        <v>1.172567644563158</v>
+      </c>
+      <c r="G20">
+        <v>1.011442208947368</v>
+      </c>
+      <c r="H20">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="I20">
+        <v>0.7932085985263159</v>
+      </c>
+      <c r="J20">
+        <v>1.875604258947368</v>
+      </c>
+      <c r="K20">
+        <v>0.7427119710526315</v>
+      </c>
+      <c r="L20">
+        <v>1.165420102105263</v>
+      </c>
+      <c r="M20">
+        <v>1.16899387333421</v>
+      </c>
+      <c r="N20">
+        <v>1.16899387333421</v>
+      </c>
+      <c r="O20">
+        <v>1.043732115064912</v>
+      </c>
+      <c r="P20">
+        <v>1.026899905907017</v>
+      </c>
+      <c r="Q20">
+        <v>1.026899905907017</v>
+      </c>
+      <c r="R20">
+        <v>0.955852922193421</v>
+      </c>
+      <c r="S20">
+        <v>0.955852922193421</v>
+      </c>
+      <c r="T20">
+        <v>1.126825797357017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="D21">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="E21">
+        <v>0.8166937730686347</v>
+      </c>
+      <c r="F21">
+        <v>1.405692187368071</v>
+      </c>
+      <c r="G21">
+        <v>0.8474466034107666</v>
+      </c>
+      <c r="H21">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="I21">
+        <v>1.39799522431629</v>
+      </c>
+      <c r="J21">
+        <v>0.307156404741581</v>
+      </c>
+      <c r="K21">
+        <v>0.9369852750566613</v>
+      </c>
+      <c r="L21">
+        <v>0.8166937730686347</v>
+      </c>
+      <c r="M21">
+        <v>1.111192980218353</v>
+      </c>
+      <c r="N21">
+        <v>1.111192980218353</v>
+      </c>
+      <c r="O21">
+        <v>1.206793728250999</v>
+      </c>
+      <c r="P21">
+        <v>1.053123745164456</v>
+      </c>
+      <c r="Q21">
+        <v>1.053123745164456</v>
+      </c>
+      <c r="R21">
+        <v>1.024089127637507</v>
+      </c>
+      <c r="S21">
+        <v>1.024089127637507</v>
+      </c>
+      <c r="T21">
+        <v>0.9519949113270006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="D22">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="E22">
+        <v>0.9395156794848313</v>
+      </c>
+      <c r="F22">
+        <v>1.466913630664787</v>
+      </c>
+      <c r="G22">
+        <v>0.9499528938458658</v>
+      </c>
+      <c r="H22">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="I22">
+        <v>1.057654262898629</v>
+      </c>
+      <c r="J22">
+        <v>0.9564282063364896</v>
+      </c>
+      <c r="K22">
+        <v>0.9734808885049026</v>
+      </c>
+      <c r="L22">
+        <v>0.9395156794848313</v>
+      </c>
+      <c r="M22">
+        <v>1.203214655074809</v>
+      </c>
+      <c r="N22">
+        <v>1.203214655074809</v>
+      </c>
+      <c r="O22">
+        <v>1.154694524349416</v>
+      </c>
+      <c r="P22">
+        <v>1.12663673288484</v>
+      </c>
+      <c r="Q22">
+        <v>1.12663673288484</v>
+      </c>
+      <c r="R22">
+        <v>1.088347771789856</v>
+      </c>
+      <c r="S22">
+        <v>1.088347771789856</v>
+      </c>
+      <c r="T22">
+        <v>1.057324260289251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.026524799268079</v>
+      </c>
+      <c r="D23">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="E23">
+        <v>0.7723368944038363</v>
+      </c>
+      <c r="F23">
+        <v>1.026524799268079</v>
+      </c>
+      <c r="G23">
+        <v>0.9595643303470247</v>
+      </c>
+      <c r="H23">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="I23">
+        <v>1.113215078843633</v>
+      </c>
+      <c r="J23">
+        <v>0.4059314289462729</v>
+      </c>
+      <c r="K23">
+        <v>1.394717510638623</v>
+      </c>
+      <c r="L23">
+        <v>0.7723368944038363</v>
+      </c>
+      <c r="M23">
+        <v>0.8994308468359578</v>
+      </c>
+      <c r="N23">
+        <v>0.8994308468359578</v>
+      </c>
+      <c r="O23">
+        <v>0.9706922575051831</v>
+      </c>
+      <c r="P23">
+        <v>1.064526401436846</v>
+      </c>
+      <c r="Q23">
+        <v>1.064526401436846</v>
+      </c>
+      <c r="R23">
+        <v>1.14707417873729</v>
+      </c>
+      <c r="S23">
+        <v>1.14707417873729</v>
+      </c>
+      <c r="T23">
+        <v>0.9453816737412449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.126509680406858</v>
+      </c>
+      <c r="D24">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="E24">
+        <v>1.093394366662893</v>
+      </c>
+      <c r="F24">
+        <v>1.126509680406858</v>
+      </c>
+      <c r="G24">
+        <v>0.9937155478589206</v>
+      </c>
+      <c r="H24">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="I24">
+        <v>1.031507248156779</v>
+      </c>
+      <c r="J24">
+        <v>1.096093967604579</v>
+      </c>
+      <c r="K24">
+        <v>0.7677380426660106</v>
+      </c>
+      <c r="L24">
+        <v>1.093394366662893</v>
+      </c>
+      <c r="M24">
+        <v>1.109952023534876</v>
+      </c>
+      <c r="N24">
+        <v>1.109952023534876</v>
+      </c>
+      <c r="O24">
+        <v>1.08380376507551</v>
+      </c>
+      <c r="P24">
+        <v>0.9958806965785874</v>
+      </c>
+      <c r="Q24">
+        <v>0.9958806965785872</v>
+      </c>
+      <c r="R24">
+        <v>0.9388450331004431</v>
+      </c>
+      <c r="S24">
+        <v>0.9388450331004431</v>
+      </c>
+      <c r="T24">
+        <v>1.018159808892673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.6914880480071034</v>
+      </c>
+      <c r="D25">
+        <v>1.341079854879568</v>
+      </c>
+      <c r="E25">
+        <v>0.9269993687047086</v>
+      </c>
+      <c r="F25">
+        <v>0.6914880480071034</v>
+      </c>
+      <c r="G25">
+        <v>1.05698381453548</v>
+      </c>
+      <c r="H25">
+        <v>1.341079854879568</v>
+      </c>
+      <c r="I25">
+        <v>0.9370806449285144</v>
+      </c>
+      <c r="J25">
+        <v>0.6662806908105958</v>
+      </c>
+      <c r="K25">
+        <v>1.341079854879568</v>
+      </c>
+      <c r="L25">
+        <v>0.9269993687047086</v>
+      </c>
+      <c r="M25">
+        <v>0.809243708355906</v>
+      </c>
+      <c r="N25">
+        <v>0.809243708355906</v>
+      </c>
+      <c r="O25">
+        <v>0.8518560205467754</v>
+      </c>
+      <c r="P25">
+        <v>0.9865224238637934</v>
+      </c>
+      <c r="Q25">
+        <v>0.9865224238637934</v>
+      </c>
+      <c r="R25">
+        <v>1.075161781617737</v>
+      </c>
+      <c r="S25">
+        <v>1.075161781617737</v>
+      </c>
+      <c r="T25">
+        <v>0.9366520703109953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.06586409168011</v>
+      </c>
+      <c r="D26">
+        <v>0.879512380514582</v>
+      </c>
+      <c r="E26">
+        <v>1.027474153344448</v>
+      </c>
+      <c r="F26">
+        <v>1.06586409168011</v>
+      </c>
+      <c r="G26">
+        <v>0.9821263260816365</v>
+      </c>
+      <c r="H26">
+        <v>0.879512380514582</v>
+      </c>
+      <c r="I26">
+        <v>0.9995523817221563</v>
+      </c>
+      <c r="J26">
+        <v>1.217050965443922</v>
+      </c>
+      <c r="K26">
+        <v>0.879512380514582</v>
+      </c>
+      <c r="L26">
+        <v>1.027474153344448</v>
+      </c>
+      <c r="M26">
+        <v>1.046669122512279</v>
+      </c>
+      <c r="N26">
+        <v>1.046669122512279</v>
+      </c>
+      <c r="O26">
+        <v>1.030963542248905</v>
+      </c>
+      <c r="P26">
+        <v>0.9909502085130465</v>
+      </c>
+      <c r="Q26">
+        <v>0.9909502085130466</v>
+      </c>
+      <c r="R26">
+        <v>0.9630907515134305</v>
+      </c>
+      <c r="S26">
+        <v>0.9630907515134305</v>
+      </c>
+      <c r="T26">
+        <v>1.028596716464476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.7357978784170719</v>
+      </c>
+      <c r="D27">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="E27">
+        <v>1.009393962405749</v>
+      </c>
+      <c r="F27">
+        <v>0.7357978784170719</v>
+      </c>
+      <c r="G27">
+        <v>1.005350798447097</v>
+      </c>
+      <c r="H27">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="I27">
+        <v>0.9777025903110533</v>
+      </c>
+      <c r="J27">
+        <v>1.129394394081144</v>
+      </c>
+      <c r="K27">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="L27">
+        <v>1.009393962405749</v>
+      </c>
+      <c r="M27">
+        <v>0.8725959204114107</v>
+      </c>
+      <c r="N27">
+        <v>0.8725959204114107</v>
+      </c>
+      <c r="O27">
+        <v>0.9076314770446249</v>
+      </c>
+      <c r="P27">
+        <v>0.9252022544754884</v>
+      </c>
+      <c r="Q27">
+        <v>0.9252022544754883</v>
+      </c>
+      <c r="R27">
+        <v>0.9515054215075273</v>
+      </c>
+      <c r="S27">
+        <v>0.9515054215075273</v>
+      </c>
+      <c r="T27">
+        <v>0.9813424243776264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.049191761293431</v>
+      </c>
+      <c r="D28">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="E28">
+        <v>0.8991932613728693</v>
+      </c>
+      <c r="F28">
+        <v>1.049191761293431</v>
+      </c>
+      <c r="G28">
+        <v>0.9848872503628292</v>
+      </c>
+      <c r="H28">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="I28">
+        <v>0.9787842434744104</v>
+      </c>
+      <c r="J28">
+        <v>0.8388854379969866</v>
+      </c>
+      <c r="K28">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="L28">
+        <v>0.8991932613728693</v>
+      </c>
+      <c r="M28">
+        <v>0.9741925113331499</v>
+      </c>
+      <c r="N28">
+        <v>0.9741925113331499</v>
+      </c>
+      <c r="O28">
+        <v>0.9757230887135701</v>
+      </c>
+      <c r="P28">
+        <v>1.067545177165458</v>
+      </c>
+      <c r="Q28">
+        <v>1.067545177165458</v>
+      </c>
+      <c r="R28">
+        <v>1.114221510081612</v>
+      </c>
+      <c r="S28">
+        <v>1.114221510081612</v>
+      </c>
+      <c r="T28">
+        <v>1.0008654105551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8952538796961231</v>
+      </c>
+      <c r="D29">
+        <v>1.055769110408035</v>
+      </c>
+      <c r="E29">
+        <v>0.9759480129566341</v>
+      </c>
+      <c r="F29">
+        <v>0.8952538796961231</v>
+      </c>
+      <c r="G29">
+        <v>0.9470993800865903</v>
+      </c>
+      <c r="H29">
+        <v>1.055769110408035</v>
+      </c>
+      <c r="I29">
+        <v>1.203109009989811</v>
+      </c>
+      <c r="J29">
+        <v>0.3297069272699016</v>
+      </c>
+      <c r="K29">
+        <v>1.055769110408035</v>
+      </c>
+      <c r="L29">
+        <v>0.9759480129566341</v>
+      </c>
+      <c r="M29">
+        <v>0.9356009463263786</v>
+      </c>
+      <c r="N29">
+        <v>0.9356009463263786</v>
+      </c>
+      <c r="O29">
+        <v>1.024770300880856</v>
+      </c>
+      <c r="P29">
+        <v>0.9756570010202642</v>
+      </c>
+      <c r="Q29">
+        <v>0.9756570010202642</v>
+      </c>
+      <c r="R29">
+        <v>0.995685028367207</v>
+      </c>
+      <c r="S29">
+        <v>0.995685028367207</v>
+      </c>
+      <c r="T29">
+        <v>0.9011477200678492</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8542902994516213</v>
+        <v>0.8115741179572922</v>
       </c>
       <c r="D4">
-        <v>1.19770056894135</v>
+        <v>0.9482788694071127</v>
       </c>
       <c r="E4">
-        <v>0.9652419744726308</v>
+        <v>1.093708900492132</v>
       </c>
       <c r="F4">
-        <v>0.8542902994516213</v>
+        <v>0.8115741179572922</v>
       </c>
       <c r="G4">
-        <v>1.026841839867632</v>
+        <v>1.048913678219783</v>
       </c>
       <c r="H4">
-        <v>1.19770056894135</v>
+        <v>0.9482788694071127</v>
       </c>
       <c r="I4">
-        <v>0.9314928562200339</v>
+        <v>0.8493825035583669</v>
       </c>
       <c r="J4">
-        <v>0.9432593134526215</v>
+        <v>1.403113301400745</v>
       </c>
       <c r="K4">
-        <v>1.19770056894135</v>
+        <v>0.9482788694071127</v>
       </c>
       <c r="L4">
-        <v>0.9652419744726308</v>
+        <v>1.093708900492132</v>
       </c>
       <c r="M4">
-        <v>0.909766136962126</v>
+        <v>0.9526415092247121</v>
       </c>
       <c r="N4">
-        <v>0.909766136962126</v>
+        <v>0.9526415092247121</v>
       </c>
       <c r="O4">
-        <v>0.917008376714762</v>
+        <v>0.9182218406692636</v>
       </c>
       <c r="P4">
-        <v>1.005744280955201</v>
+        <v>0.9511872959521789</v>
       </c>
       <c r="Q4">
-        <v>1.005744280955201</v>
+        <v>0.9511872959521789</v>
       </c>
       <c r="R4">
-        <v>1.053733352951738</v>
+        <v>0.9504601893159124</v>
       </c>
       <c r="S4">
-        <v>1.053733352951738</v>
+        <v>0.9504601893159124</v>
       </c>
       <c r="T4">
-        <v>0.9864711420676482</v>
+        <v>1.025828561839239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7797689063628263</v>
+        <v>1.285660442863944</v>
       </c>
       <c r="D5">
-        <v>0.946053101815564</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="E5">
-        <v>1.107541159351586</v>
+        <v>1.120037499514067</v>
       </c>
       <c r="F5">
-        <v>0.7797689063628263</v>
+        <v>1.285660442863944</v>
       </c>
       <c r="G5">
-        <v>1.056380666304035</v>
+        <v>0.9926907483397743</v>
       </c>
       <c r="H5">
-        <v>0.946053101815564</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="I5">
-        <v>0.821878835117436</v>
+        <v>0.8503098473864319</v>
       </c>
       <c r="J5">
-        <v>1.475175149883283</v>
+        <v>1.687968925597128</v>
       </c>
       <c r="K5">
-        <v>0.946053101815564</v>
+        <v>0.7837792567207699</v>
       </c>
       <c r="L5">
-        <v>1.107541159351586</v>
+        <v>1.120037499514067</v>
       </c>
       <c r="M5">
-        <v>0.9436550328572062</v>
+        <v>1.202848971189006</v>
       </c>
       <c r="N5">
-        <v>0.9436550328572062</v>
+        <v>1.202848971189006</v>
       </c>
       <c r="O5">
-        <v>0.9030629669439495</v>
+        <v>1.085335929921481</v>
       </c>
       <c r="P5">
-        <v>0.9444543891766588</v>
+        <v>1.06315906636626</v>
       </c>
       <c r="Q5">
-        <v>0.9444543891766588</v>
+        <v>1.06315906636626</v>
       </c>
       <c r="R5">
-        <v>0.9448540673363851</v>
+        <v>0.9933141139548878</v>
       </c>
       <c r="S5">
-        <v>0.9448540673363851</v>
+        <v>0.9933141139548878</v>
       </c>
       <c r="T5">
-        <v>1.031132969805789</v>
+        <v>1.120074453403686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4088203095428154</v>
+        <v>0.8542902994516213</v>
       </c>
       <c r="D6">
-        <v>0.62192925267719</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="E6">
-        <v>1.351287167360659</v>
+        <v>0.9652419744726308</v>
       </c>
       <c r="F6">
-        <v>0.4088203095428154</v>
+        <v>0.8542902994516213</v>
       </c>
       <c r="G6">
-        <v>1.11688761882459</v>
+        <v>1.026841839867632</v>
       </c>
       <c r="H6">
-        <v>0.62192925267719</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="I6">
-        <v>0.4489980563536347</v>
+        <v>0.9314928562200339</v>
       </c>
       <c r="J6">
-        <v>3.029007408964278</v>
+        <v>0.9432593134526215</v>
       </c>
       <c r="K6">
-        <v>0.62192925267719</v>
+        <v>1.19770056894135</v>
       </c>
       <c r="L6">
-        <v>1.351287167360659</v>
+        <v>0.9652419744726308</v>
       </c>
       <c r="M6">
-        <v>0.8800537384517372</v>
+        <v>0.909766136962126</v>
       </c>
       <c r="N6">
-        <v>0.8800537384517372</v>
+        <v>0.909766136962126</v>
       </c>
       <c r="O6">
-        <v>0.7363685110857029</v>
+        <v>0.917008376714762</v>
       </c>
       <c r="P6">
-        <v>0.7940122431935549</v>
+        <v>1.005744280955201</v>
       </c>
       <c r="Q6">
-        <v>0.7940122431935549</v>
+        <v>1.005744280955201</v>
       </c>
       <c r="R6">
-        <v>0.7509914955644637</v>
+        <v>1.053733352951738</v>
       </c>
       <c r="S6">
-        <v>0.7509914955644637</v>
+        <v>1.053733352951738</v>
       </c>
       <c r="T6">
-        <v>1.162821635620528</v>
+        <v>0.9864711420676482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.95948783521582</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="D7">
-        <v>1.031605948600945</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="E7">
-        <v>1.004209941900144</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="F7">
-        <v>0.95948783521582</v>
+        <v>0.7797689063628263</v>
       </c>
       <c r="G7">
-        <v>1.01131347839317</v>
+        <v>1.056380666304035</v>
       </c>
       <c r="H7">
-        <v>1.031605948600945</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="I7">
-        <v>0.9764273620388224</v>
+        <v>0.821878835117436</v>
       </c>
       <c r="J7">
-        <v>1.00069976678915</v>
+        <v>1.475175149883283</v>
       </c>
       <c r="K7">
-        <v>1.031605948600945</v>
+        <v>0.946053101815564</v>
       </c>
       <c r="L7">
-        <v>1.004209941900144</v>
+        <v>1.107541159351586</v>
       </c>
       <c r="M7">
-        <v>0.981848888557982</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="N7">
-        <v>0.981848888557982</v>
+        <v>0.9436550328572062</v>
       </c>
       <c r="O7">
-        <v>0.9800417130515955</v>
+        <v>0.9030629669439495</v>
       </c>
       <c r="P7">
-        <v>0.9984345752389695</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="Q7">
-        <v>0.9984345752389695</v>
+        <v>0.9444543891766588</v>
       </c>
       <c r="R7">
-        <v>1.006727418579463</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="S7">
-        <v>1.006727418579463</v>
+        <v>0.9448540673363851</v>
       </c>
       <c r="T7">
-        <v>0.9972907221563417</v>
+        <v>1.031132969805789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989936725768289</v>
+        <v>0.4088203095428154</v>
       </c>
       <c r="D8">
-        <v>0.9920823728431052</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="E8">
-        <v>1.003956554590018</v>
+        <v>1.351287167360659</v>
       </c>
       <c r="F8">
-        <v>0.9989936725768289</v>
+        <v>0.4088203095428154</v>
       </c>
       <c r="G8">
-        <v>1.001051900779052</v>
+        <v>1.11688761882459</v>
       </c>
       <c r="H8">
-        <v>0.9920823728431052</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="I8">
-        <v>0.998701914594357</v>
+        <v>0.4489980563536347</v>
       </c>
       <c r="J8">
-        <v>1.007247407576925</v>
+        <v>3.029007408964278</v>
       </c>
       <c r="K8">
-        <v>0.9920823728431052</v>
+        <v>0.62192925267719</v>
       </c>
       <c r="L8">
-        <v>1.003956554590018</v>
+        <v>1.351287167360659</v>
       </c>
       <c r="M8">
-        <v>1.001475113583424</v>
+        <v>0.8800537384517372</v>
       </c>
       <c r="N8">
-        <v>1.001475113583424</v>
+        <v>0.8800537384517372</v>
       </c>
       <c r="O8">
-        <v>1.000550713920402</v>
+        <v>0.7363685110857029</v>
       </c>
       <c r="P8">
-        <v>0.9983442000033175</v>
+        <v>0.7940122431935549</v>
       </c>
       <c r="Q8">
-        <v>0.9983442000033174</v>
+        <v>0.7940122431935549</v>
       </c>
       <c r="R8">
-        <v>0.9967787432132643</v>
+        <v>0.7509914955644637</v>
       </c>
       <c r="S8">
-        <v>0.9967787432132643</v>
+        <v>0.7509914955644637</v>
       </c>
       <c r="T8">
-        <v>1.000338970493381</v>
+        <v>1.162821635620528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9287680899144258</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="D9">
-        <v>1.057589404769768</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="E9">
-        <v>1.006958270925948</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="F9">
-        <v>0.9287680899144258</v>
+        <v>0.95948783521582</v>
       </c>
       <c r="G9">
-        <v>1.019907759038423</v>
+        <v>1.01131347839317</v>
       </c>
       <c r="H9">
-        <v>1.057589404769768</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="I9">
-        <v>0.9580765361046438</v>
+        <v>0.9764273620388224</v>
       </c>
       <c r="J9">
-        <v>1.000379497986021</v>
+        <v>1.00069976678915</v>
       </c>
       <c r="K9">
-        <v>1.057589404769768</v>
+        <v>1.031605948600945</v>
       </c>
       <c r="L9">
-        <v>1.006958270925948</v>
+        <v>1.004209941900144</v>
       </c>
       <c r="M9">
-        <v>0.9678631804201869</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="N9">
-        <v>0.9678631804201869</v>
+        <v>0.981848888557982</v>
       </c>
       <c r="O9">
-        <v>0.9646009656483393</v>
+        <v>0.9800417130515955</v>
       </c>
       <c r="P9">
-        <v>0.9977719218700472</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="Q9">
-        <v>0.9977719218700472</v>
+        <v>0.9984345752389695</v>
       </c>
       <c r="R9">
-        <v>1.012726292594977</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="S9">
-        <v>1.012726292594977</v>
+        <v>1.006727418579463</v>
       </c>
       <c r="T9">
-        <v>0.9952799264565382</v>
+        <v>0.9972907221563417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4187654292711454</v>
+        <v>0.9989936725768289</v>
       </c>
       <c r="D10">
-        <v>0.6086320126726947</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="E10">
-        <v>1.356645872143831</v>
+        <v>1.003956554590018</v>
       </c>
       <c r="F10">
-        <v>0.4187654292711454</v>
+        <v>0.9989936725768289</v>
       </c>
       <c r="G10">
-        <v>1.116500417268677</v>
+        <v>1.001051900779052</v>
       </c>
       <c r="H10">
-        <v>0.6086320126726947</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="I10">
-        <v>0.4400076963126117</v>
+        <v>0.998701914594357</v>
       </c>
       <c r="J10">
-        <v>3.077174756632723</v>
+        <v>1.007247407576925</v>
       </c>
       <c r="K10">
-        <v>0.6086320126726947</v>
+        <v>0.9920823728431052</v>
       </c>
       <c r="L10">
-        <v>1.356645872143831</v>
+        <v>1.003956554590018</v>
       </c>
       <c r="M10">
-        <v>0.8877056507074884</v>
+        <v>1.001475113583424</v>
       </c>
       <c r="N10">
-        <v>0.8877056507074884</v>
+        <v>1.001475113583424</v>
       </c>
       <c r="O10">
-        <v>0.7384729992425295</v>
+        <v>1.000550713920402</v>
       </c>
       <c r="P10">
-        <v>0.7946811046958905</v>
+        <v>0.9983442000033175</v>
       </c>
       <c r="Q10">
-        <v>0.7946811046958905</v>
+        <v>0.9983442000033174</v>
       </c>
       <c r="R10">
-        <v>0.7481688316900916</v>
+        <v>0.9967787432132643</v>
       </c>
       <c r="S10">
-        <v>0.7481688316900916</v>
+        <v>0.9967787432132643</v>
       </c>
       <c r="T10">
-        <v>1.169621030716947</v>
+        <v>1.000338970493381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8158320085190742</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="D11">
-        <v>1.20377601553485</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="E11">
-        <v>0.9853541814130723</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="F11">
-        <v>0.8158320085190742</v>
+        <v>0.9287680899144258</v>
       </c>
       <c r="G11">
-        <v>1.044406158220574</v>
+        <v>1.019907759038423</v>
       </c>
       <c r="H11">
-        <v>1.20377601553485</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="I11">
-        <v>0.8811374952871768</v>
+        <v>0.9580765361046438</v>
       </c>
       <c r="J11">
-        <v>1.041717567874738</v>
+        <v>1.000379497986021</v>
       </c>
       <c r="K11">
-        <v>1.20377601553485</v>
+        <v>1.057589404769768</v>
       </c>
       <c r="L11">
-        <v>0.9853541814130723</v>
+        <v>1.006958270925948</v>
       </c>
       <c r="M11">
-        <v>0.9005930949660732</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="N11">
-        <v>0.9005930949660732</v>
+        <v>0.9678631804201869</v>
       </c>
       <c r="O11">
-        <v>0.8941078950731077</v>
+        <v>0.9646009656483393</v>
       </c>
       <c r="P11">
-        <v>1.001654068488999</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="Q11">
-        <v>1.001654068488999</v>
+        <v>0.9977719218700472</v>
       </c>
       <c r="R11">
-        <v>1.052184555250462</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="S11">
-        <v>1.052184555250462</v>
+        <v>1.012726292594977</v>
       </c>
       <c r="T11">
-        <v>0.9953705711415809</v>
+        <v>0.9952799264565382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8449531898185283</v>
+        <v>0.4187654292711454</v>
       </c>
       <c r="D12">
-        <v>0.8742669354421074</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="E12">
-        <v>1.122897054778947</v>
+        <v>1.356645872143831</v>
       </c>
       <c r="F12">
-        <v>0.8449531898185283</v>
+        <v>0.4187654292711454</v>
       </c>
       <c r="G12">
-        <v>1.045319816410526</v>
+        <v>1.116500417268677</v>
       </c>
       <c r="H12">
-        <v>0.8742669354421074</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="I12">
-        <v>0.8198398926768428</v>
+        <v>0.4400076963126117</v>
       </c>
       <c r="J12">
-        <v>1.603718631145259</v>
+        <v>3.077174756632723</v>
       </c>
       <c r="K12">
-        <v>0.8742669354421074</v>
+        <v>0.6086320126726947</v>
       </c>
       <c r="L12">
-        <v>1.122897054778947</v>
+        <v>1.356645872143831</v>
       </c>
       <c r="M12">
-        <v>0.9839251222987374</v>
+        <v>0.8877056507074884</v>
       </c>
       <c r="N12">
-        <v>0.9839251222987374</v>
+        <v>0.8877056507074884</v>
       </c>
       <c r="O12">
-        <v>0.9292300457581059</v>
+        <v>0.7384729992425295</v>
       </c>
       <c r="P12">
-        <v>0.9473723933465275</v>
+        <v>0.7946811046958905</v>
       </c>
       <c r="Q12">
-        <v>0.9473723933465275</v>
+        <v>0.7946811046958905</v>
       </c>
       <c r="R12">
-        <v>0.9290960288704224</v>
+        <v>0.7481688316900916</v>
       </c>
       <c r="S12">
-        <v>0.9290960288704224</v>
+        <v>0.7481688316900916</v>
       </c>
       <c r="T12">
-        <v>1.051832586712035</v>
+        <v>1.169621030716947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.229849228596148</v>
+        <v>0.8158320085190742</v>
       </c>
       <c r="D13">
-        <v>0.983199551577144</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="E13">
-        <v>0.9318305315020518</v>
+        <v>0.9853541814130723</v>
       </c>
       <c r="F13">
-        <v>1.229849228596148</v>
+        <v>0.8158320085190742</v>
       </c>
       <c r="G13">
-        <v>0.9472156659575919</v>
+        <v>1.044406158220574</v>
       </c>
       <c r="H13">
-        <v>0.983199551577144</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="I13">
-        <v>1.120110028022272</v>
+        <v>0.8811374952871768</v>
       </c>
       <c r="J13">
-        <v>0.7952578626060484</v>
+        <v>1.041717567874738</v>
       </c>
       <c r="K13">
-        <v>0.983199551577144</v>
+        <v>1.20377601553485</v>
       </c>
       <c r="L13">
-        <v>0.9318305315020518</v>
+        <v>0.9853541814130723</v>
       </c>
       <c r="M13">
-        <v>1.0808398800491</v>
+        <v>0.9005930949660732</v>
       </c>
       <c r="N13">
-        <v>1.0808398800491</v>
+        <v>0.9005930949660732</v>
       </c>
       <c r="O13">
-        <v>1.093929929373491</v>
+        <v>0.8941078950731077</v>
       </c>
       <c r="P13">
-        <v>1.048293103891781</v>
+        <v>1.001654068488999</v>
       </c>
       <c r="Q13">
-        <v>1.048293103891781</v>
+        <v>1.001654068488999</v>
       </c>
       <c r="R13">
-        <v>1.032019715813122</v>
+        <v>1.052184555250462</v>
       </c>
       <c r="S13">
-        <v>1.032019715813122</v>
+        <v>1.052184555250462</v>
       </c>
       <c r="T13">
-        <v>1.001243811376876</v>
+        <v>0.9953705711415809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002978201699999996</v>
+        <v>0.8449531898185283</v>
       </c>
       <c r="D14">
-        <v>0.2985276500000003</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="E14">
-        <v>1.609013300000001</v>
+        <v>1.122897054778947</v>
       </c>
       <c r="F14">
-        <v>0.002978201699999996</v>
+        <v>0.8449531898185283</v>
       </c>
       <c r="G14">
-        <v>1.185680000000001</v>
+        <v>1.045319816410526</v>
       </c>
       <c r="H14">
-        <v>0.2985276500000003</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="I14">
-        <v>0.04447159299999995</v>
+        <v>0.8198398926768428</v>
       </c>
       <c r="J14">
-        <v>4.664584400000003</v>
+        <v>1.603718631145259</v>
       </c>
       <c r="K14">
-        <v>0.2985276500000003</v>
+        <v>0.8742669354421074</v>
       </c>
       <c r="L14">
-        <v>1.609013300000001</v>
+        <v>1.122897054778947</v>
       </c>
       <c r="M14">
-        <v>0.8059957508500003</v>
+        <v>0.9839251222987374</v>
       </c>
       <c r="N14">
-        <v>0.8059957508500003</v>
+        <v>0.9839251222987374</v>
       </c>
       <c r="O14">
-        <v>0.5521543649000001</v>
+        <v>0.9292300457581059</v>
       </c>
       <c r="P14">
-        <v>0.6368397172333337</v>
+        <v>0.9473723933465275</v>
       </c>
       <c r="Q14">
-        <v>0.6368397172333337</v>
+        <v>0.9473723933465275</v>
       </c>
       <c r="R14">
-        <v>0.5522617004250003</v>
+        <v>0.9290960288704224</v>
       </c>
       <c r="S14">
-        <v>0.5522617004250003</v>
+        <v>0.9290960288704224</v>
       </c>
       <c r="T14">
-        <v>1.300875857450001</v>
+        <v>1.051832586712035</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.46313886</v>
+        <v>1.229849228596148</v>
       </c>
       <c r="D15">
-        <v>0.38318732</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="E15">
-        <v>1.5930668</v>
+        <v>0.9318305315020518</v>
       </c>
       <c r="F15">
-        <v>0.46313886</v>
+        <v>1.229849228596148</v>
       </c>
       <c r="G15">
-        <v>1.1606268</v>
+        <v>0.9472156659575919</v>
       </c>
       <c r="H15">
-        <v>0.38318732</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="I15">
-        <v>0.93136898</v>
+        <v>1.120110028022272</v>
       </c>
       <c r="J15">
-        <v>0.71770318</v>
+        <v>0.7952578626060484</v>
       </c>
       <c r="K15">
-        <v>0.38318732</v>
+        <v>0.983199551577144</v>
       </c>
       <c r="L15">
-        <v>1.5930668</v>
+        <v>0.9318305315020518</v>
       </c>
       <c r="M15">
-        <v>1.02810283</v>
+        <v>1.0808398800491</v>
       </c>
       <c r="N15">
-        <v>1.02810283</v>
+        <v>1.0808398800491</v>
       </c>
       <c r="O15">
-        <v>0.9958582133333334</v>
+        <v>1.093929929373491</v>
       </c>
       <c r="P15">
-        <v>0.8131309933333334</v>
+        <v>1.048293103891781</v>
       </c>
       <c r="Q15">
-        <v>0.8131309933333334</v>
+        <v>1.048293103891781</v>
       </c>
       <c r="R15">
-        <v>0.7056450750000001</v>
+        <v>1.032019715813122</v>
       </c>
       <c r="S15">
-        <v>0.7056450750000001</v>
+        <v>1.032019715813122</v>
       </c>
       <c r="T15">
-        <v>0.8748486566666668</v>
+        <v>1.001243811376876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.023300756</v>
+        <v>0.002978201699999996</v>
       </c>
       <c r="D16">
-        <v>3.4428622</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="E16">
-        <v>0.42160412</v>
+        <v>1.609013300000001</v>
       </c>
       <c r="F16">
-        <v>0.023300756</v>
+        <v>0.002978201699999996</v>
       </c>
       <c r="G16">
-        <v>1.134</v>
+        <v>1.185680000000001</v>
       </c>
       <c r="H16">
-        <v>3.4428622</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="I16">
-        <v>0.39134565</v>
+        <v>0.04447159299999995</v>
       </c>
       <c r="J16">
-        <v>0.21380688</v>
+        <v>4.664584400000003</v>
       </c>
       <c r="K16">
-        <v>3.4428622</v>
+        <v>0.2985276500000003</v>
       </c>
       <c r="L16">
-        <v>0.42160412</v>
+        <v>1.609013300000001</v>
       </c>
       <c r="M16">
-        <v>0.222452438</v>
+        <v>0.8059957508500003</v>
       </c>
       <c r="N16">
-        <v>0.222452438</v>
+        <v>0.8059957508500003</v>
       </c>
       <c r="O16">
-        <v>0.2787501753333333</v>
+        <v>0.5521543649000001</v>
       </c>
       <c r="P16">
-        <v>1.295922358666667</v>
+        <v>0.6368397172333337</v>
       </c>
       <c r="Q16">
-        <v>1.295922358666667</v>
+        <v>0.6368397172333337</v>
       </c>
       <c r="R16">
-        <v>1.832657319</v>
+        <v>0.5522617004250003</v>
       </c>
       <c r="S16">
-        <v>1.832657319</v>
+        <v>0.5522617004250003</v>
       </c>
       <c r="T16">
-        <v>0.9378199343333332</v>
+        <v>1.300875857450001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3299871</v>
+        <v>0.46313886</v>
       </c>
       <c r="D17">
-        <v>0.29571039</v>
+        <v>0.38318732</v>
       </c>
       <c r="E17">
-        <v>1.086796</v>
+        <v>1.5930668</v>
       </c>
       <c r="F17">
-        <v>1.3299871</v>
+        <v>0.46313886</v>
       </c>
       <c r="G17">
-        <v>0.806712</v>
+        <v>1.1606268</v>
       </c>
       <c r="H17">
-        <v>0.29571039</v>
+        <v>0.38318732</v>
       </c>
       <c r="I17">
-        <v>1.5878593</v>
+        <v>0.93136898</v>
       </c>
       <c r="J17">
-        <v>0.2191714</v>
+        <v>0.71770318</v>
       </c>
       <c r="K17">
-        <v>0.29571039</v>
+        <v>0.38318732</v>
       </c>
       <c r="L17">
-        <v>1.086796</v>
+        <v>1.5930668</v>
       </c>
       <c r="M17">
-        <v>1.20839155</v>
+        <v>1.02810283</v>
       </c>
       <c r="N17">
-        <v>1.20839155</v>
+        <v>1.02810283</v>
       </c>
       <c r="O17">
-        <v>1.3348808</v>
+        <v>0.9958582133333334</v>
       </c>
       <c r="P17">
-        <v>0.9041644966666667</v>
+        <v>0.8131309933333334</v>
       </c>
       <c r="Q17">
-        <v>0.9041644966666667</v>
+        <v>0.8131309933333334</v>
       </c>
       <c r="R17">
-        <v>0.75205097</v>
+        <v>0.7056450750000001</v>
       </c>
       <c r="S17">
-        <v>0.75205097</v>
+        <v>0.7056450750000001</v>
       </c>
       <c r="T17">
-        <v>0.8877060316666666</v>
+        <v>0.8748486566666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1179661653698631</v>
+        <v>0.023300756</v>
       </c>
       <c r="D18">
-        <v>1.723115233424657</v>
+        <v>3.4428622</v>
       </c>
       <c r="E18">
-        <v>1.07363912109589</v>
+        <v>0.42160412</v>
       </c>
       <c r="F18">
-        <v>0.1179661653698631</v>
+        <v>0.023300756</v>
       </c>
       <c r="G18">
-        <v>1.244543983561643</v>
+        <v>1.134</v>
       </c>
       <c r="H18">
-        <v>1.723115233424657</v>
+        <v>3.4428622</v>
       </c>
       <c r="I18">
-        <v>0.5033801578082192</v>
+        <v>0.39134565</v>
       </c>
       <c r="J18">
-        <v>0.9259040868493152</v>
+        <v>0.21380688</v>
       </c>
       <c r="K18">
-        <v>1.723115233424657</v>
+        <v>3.4428622</v>
       </c>
       <c r="L18">
-        <v>1.07363912109589</v>
+        <v>0.42160412</v>
       </c>
       <c r="M18">
-        <v>0.5958026432328767</v>
+        <v>0.222452438</v>
       </c>
       <c r="N18">
-        <v>0.5958026432328767</v>
+        <v>0.222452438</v>
       </c>
       <c r="O18">
-        <v>0.5649951480913242</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P18">
-        <v>0.9715735066301369</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q18">
-        <v>0.9715735066301369</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R18">
-        <v>1.159458938328767</v>
+        <v>1.832657319</v>
       </c>
       <c r="S18">
-        <v>1.159458938328767</v>
+        <v>1.832657319</v>
       </c>
       <c r="T18">
-        <v>0.9314247913515979</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6527962733210528</v>
+        <v>1.3299871</v>
       </c>
       <c r="D19">
-        <v>0.992493214736842</v>
+        <v>0.29571039</v>
       </c>
       <c r="E19">
-        <v>1.048055814210526</v>
+        <v>1.086796</v>
       </c>
       <c r="F19">
-        <v>0.6527962733210528</v>
+        <v>1.3299871</v>
       </c>
       <c r="G19">
-        <v>1.007523651578947</v>
+        <v>0.806712</v>
       </c>
       <c r="H19">
-        <v>0.992493214736842</v>
+        <v>0.29571039</v>
       </c>
       <c r="I19">
-        <v>1.006359844052632</v>
+        <v>1.5878593</v>
       </c>
       <c r="J19">
-        <v>1.018800933</v>
+        <v>0.2191714</v>
       </c>
       <c r="K19">
-        <v>0.992493214736842</v>
+        <v>0.29571039</v>
       </c>
       <c r="L19">
-        <v>1.048055814210526</v>
+        <v>1.086796</v>
       </c>
       <c r="M19">
-        <v>0.8504260437657896</v>
+        <v>1.20839155</v>
       </c>
       <c r="N19">
-        <v>0.8504260437657896</v>
+        <v>1.20839155</v>
       </c>
       <c r="O19">
-        <v>0.9024039771947369</v>
+        <v>1.3348808</v>
       </c>
       <c r="P19">
-        <v>0.8977817674228071</v>
+        <v>0.9041644966666667</v>
       </c>
       <c r="Q19">
-        <v>0.8977817674228071</v>
+        <v>0.9041644966666667</v>
       </c>
       <c r="R19">
-        <v>0.9214596292513159</v>
+        <v>0.75205097</v>
       </c>
       <c r="S19">
-        <v>0.9214596292513159</v>
+        <v>0.75205097</v>
       </c>
       <c r="T19">
-        <v>0.9543382884833332</v>
+        <v>0.8877060316666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.172567644563158</v>
+        <v>0.1179661653698631</v>
       </c>
       <c r="D20">
-        <v>0.7427119710526315</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="E20">
-        <v>1.165420102105263</v>
+        <v>1.07363912109589</v>
       </c>
       <c r="F20">
-        <v>1.172567644563158</v>
+        <v>0.1179661653698631</v>
       </c>
       <c r="G20">
-        <v>1.011442208947368</v>
+        <v>1.244543983561643</v>
       </c>
       <c r="H20">
-        <v>0.7427119710526315</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="I20">
-        <v>0.7932085985263159</v>
+        <v>0.5033801578082192</v>
       </c>
       <c r="J20">
-        <v>1.875604258947368</v>
+        <v>0.9259040868493152</v>
       </c>
       <c r="K20">
-        <v>0.7427119710526315</v>
+        <v>1.723115233424657</v>
       </c>
       <c r="L20">
-        <v>1.165420102105263</v>
+        <v>1.07363912109589</v>
       </c>
       <c r="M20">
-        <v>1.16899387333421</v>
+        <v>0.5958026432328767</v>
       </c>
       <c r="N20">
-        <v>1.16899387333421</v>
+        <v>0.5958026432328767</v>
       </c>
       <c r="O20">
-        <v>1.043732115064912</v>
+        <v>0.5649951480913242</v>
       </c>
       <c r="P20">
-        <v>1.026899905907017</v>
+        <v>0.9715735066301369</v>
       </c>
       <c r="Q20">
-        <v>1.026899905907017</v>
+        <v>0.9715735066301369</v>
       </c>
       <c r="R20">
-        <v>0.955852922193421</v>
+        <v>1.159458938328767</v>
       </c>
       <c r="S20">
-        <v>0.955852922193421</v>
+        <v>1.159458938328767</v>
       </c>
       <c r="T20">
-        <v>1.126825797357017</v>
+        <v>0.9314247913515979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.405692187368071</v>
+        <v>0.6527962733210528</v>
       </c>
       <c r="D21">
-        <v>0.9369852750566613</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="E21">
-        <v>0.8166937730686347</v>
+        <v>1.048055814210526</v>
       </c>
       <c r="F21">
-        <v>1.405692187368071</v>
+        <v>0.6527962733210528</v>
       </c>
       <c r="G21">
-        <v>0.8474466034107666</v>
+        <v>1.007523651578947</v>
       </c>
       <c r="H21">
-        <v>0.9369852750566613</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="I21">
-        <v>1.39799522431629</v>
+        <v>1.006359844052632</v>
       </c>
       <c r="J21">
-        <v>0.307156404741581</v>
+        <v>1.018800933</v>
       </c>
       <c r="K21">
-        <v>0.9369852750566613</v>
+        <v>0.992493214736842</v>
       </c>
       <c r="L21">
-        <v>0.8166937730686347</v>
+        <v>1.048055814210526</v>
       </c>
       <c r="M21">
-        <v>1.111192980218353</v>
+        <v>0.8504260437657896</v>
       </c>
       <c r="N21">
-        <v>1.111192980218353</v>
+        <v>0.8504260437657896</v>
       </c>
       <c r="O21">
-        <v>1.206793728250999</v>
+        <v>0.9024039771947369</v>
       </c>
       <c r="P21">
-        <v>1.053123745164456</v>
+        <v>0.8977817674228071</v>
       </c>
       <c r="Q21">
-        <v>1.053123745164456</v>
+        <v>0.8977817674228071</v>
       </c>
       <c r="R21">
-        <v>1.024089127637507</v>
+        <v>0.9214596292513159</v>
       </c>
       <c r="S21">
-        <v>1.024089127637507</v>
+        <v>0.9214596292513159</v>
       </c>
       <c r="T21">
-        <v>0.9519949113270006</v>
+        <v>0.9543382884833332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.466913630664787</v>
+        <v>1.172567644563158</v>
       </c>
       <c r="D22">
-        <v>0.9734808885049026</v>
+        <v>0.7427119710526315</v>
       </c>
       <c r="E22">
-        <v>0.9395156794848313</v>
+        <v>1.165420102105263</v>
       </c>
       <c r="F22">
-        <v>1.466913630664787</v>
+        <v>1.172567644563158</v>
       </c>
       <c r="G22">
-        <v>0.9499528938458658</v>
+        <v>1.011442208947368</v>
       </c>
       <c r="H22">
-        <v>0.9734808885049026</v>
+        <v>0.7427119710526315</v>
       </c>
       <c r="I22">
-        <v>1.057654262898629</v>
+        <v>0.7932085985263159</v>
       </c>
       <c r="J22">
-        <v>0.9564282063364896</v>
+        <v>1.875604258947368</v>
       </c>
       <c r="K22">
-        <v>0.9734808885049026</v>
+        <v>0.7427119710526315</v>
       </c>
       <c r="L22">
-        <v>0.9395156794848313</v>
+        <v>1.165420102105263</v>
       </c>
       <c r="M22">
-        <v>1.203214655074809</v>
+        <v>1.16899387333421</v>
       </c>
       <c r="N22">
-        <v>1.203214655074809</v>
+        <v>1.16899387333421</v>
       </c>
       <c r="O22">
-        <v>1.154694524349416</v>
+        <v>1.043732115064912</v>
       </c>
       <c r="P22">
-        <v>1.12663673288484</v>
+        <v>1.026899905907017</v>
       </c>
       <c r="Q22">
-        <v>1.12663673288484</v>
+        <v>1.026899905907017</v>
       </c>
       <c r="R22">
-        <v>1.088347771789856</v>
+        <v>0.955852922193421</v>
       </c>
       <c r="S22">
-        <v>1.088347771789856</v>
+        <v>0.955852922193421</v>
       </c>
       <c r="T22">
-        <v>1.057324260289251</v>
+        <v>1.126825797357017</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.026524799268079</v>
+        <v>1.405692187368071</v>
       </c>
       <c r="D23">
-        <v>1.394717510638623</v>
+        <v>0.9369852750566613</v>
       </c>
       <c r="E23">
-        <v>0.7723368944038363</v>
+        <v>0.8166937730686347</v>
       </c>
       <c r="F23">
-        <v>1.026524799268079</v>
+        <v>1.405692187368071</v>
       </c>
       <c r="G23">
-        <v>0.9595643303470247</v>
+        <v>0.8474466034107666</v>
       </c>
       <c r="H23">
-        <v>1.394717510638623</v>
+        <v>0.9369852750566613</v>
       </c>
       <c r="I23">
-        <v>1.113215078843633</v>
+        <v>1.39799522431629</v>
       </c>
       <c r="J23">
-        <v>0.4059314289462729</v>
+        <v>0.307156404741581</v>
       </c>
       <c r="K23">
-        <v>1.394717510638623</v>
+        <v>0.9369852750566613</v>
       </c>
       <c r="L23">
-        <v>0.7723368944038363</v>
+        <v>0.8166937730686347</v>
       </c>
       <c r="M23">
-        <v>0.8994308468359578</v>
+        <v>1.111192980218353</v>
       </c>
       <c r="N23">
-        <v>0.8994308468359578</v>
+        <v>1.111192980218353</v>
       </c>
       <c r="O23">
-        <v>0.9706922575051831</v>
+        <v>1.206793728250999</v>
       </c>
       <c r="P23">
-        <v>1.064526401436846</v>
+        <v>1.053123745164456</v>
       </c>
       <c r="Q23">
-        <v>1.064526401436846</v>
+        <v>1.053123745164456</v>
       </c>
       <c r="R23">
-        <v>1.14707417873729</v>
+        <v>1.024089127637507</v>
       </c>
       <c r="S23">
-        <v>1.14707417873729</v>
+        <v>1.024089127637507</v>
       </c>
       <c r="T23">
-        <v>0.9453816737412449</v>
+        <v>0.9519949113270006</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.126509680406858</v>
+        <v>1.466913630664787</v>
       </c>
       <c r="D24">
-        <v>0.7677380426660106</v>
+        <v>0.9734808885049026</v>
       </c>
       <c r="E24">
-        <v>1.093394366662893</v>
+        <v>0.9395156794848313</v>
       </c>
       <c r="F24">
-        <v>1.126509680406858</v>
+        <v>1.466913630664787</v>
       </c>
       <c r="G24">
-        <v>0.9937155478589206</v>
+        <v>0.9499528938458658</v>
       </c>
       <c r="H24">
-        <v>0.7677380426660106</v>
+        <v>0.9734808885049026</v>
       </c>
       <c r="I24">
-        <v>1.031507248156779</v>
+        <v>1.057654262898629</v>
       </c>
       <c r="J24">
-        <v>1.096093967604579</v>
+        <v>0.9564282063364896</v>
       </c>
       <c r="K24">
-        <v>0.7677380426660106</v>
+        <v>0.9734808885049026</v>
       </c>
       <c r="L24">
-        <v>1.093394366662893</v>
+        <v>0.9395156794848313</v>
       </c>
       <c r="M24">
-        <v>1.109952023534876</v>
+        <v>1.203214655074809</v>
       </c>
       <c r="N24">
-        <v>1.109952023534876</v>
+        <v>1.203214655074809</v>
       </c>
       <c r="O24">
-        <v>1.08380376507551</v>
+        <v>1.154694524349416</v>
       </c>
       <c r="P24">
-        <v>0.9958806965785874</v>
+        <v>1.12663673288484</v>
       </c>
       <c r="Q24">
-        <v>0.9958806965785872</v>
+        <v>1.12663673288484</v>
       </c>
       <c r="R24">
-        <v>0.9388450331004431</v>
+        <v>1.088347771789856</v>
       </c>
       <c r="S24">
-        <v>0.9388450331004431</v>
+        <v>1.088347771789856</v>
       </c>
       <c r="T24">
-        <v>1.018159808892673</v>
+        <v>1.057324260289251</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6914880480071034</v>
+        <v>1.026524799268079</v>
       </c>
       <c r="D25">
-        <v>1.341079854879568</v>
+        <v>1.394717510638623</v>
       </c>
       <c r="E25">
-        <v>0.9269993687047086</v>
+        <v>0.7723368944038363</v>
       </c>
       <c r="F25">
-        <v>0.6914880480071034</v>
+        <v>1.026524799268079</v>
       </c>
       <c r="G25">
-        <v>1.05698381453548</v>
+        <v>0.9595643303470247</v>
       </c>
       <c r="H25">
-        <v>1.341079854879568</v>
+        <v>1.394717510638623</v>
       </c>
       <c r="I25">
-        <v>0.9370806449285144</v>
+        <v>1.113215078843633</v>
       </c>
       <c r="J25">
-        <v>0.6662806908105958</v>
+        <v>0.4059314289462729</v>
       </c>
       <c r="K25">
-        <v>1.341079854879568</v>
+        <v>1.394717510638623</v>
       </c>
       <c r="L25">
-        <v>0.9269993687047086</v>
+        <v>0.7723368944038363</v>
       </c>
       <c r="M25">
-        <v>0.809243708355906</v>
+        <v>0.8994308468359578</v>
       </c>
       <c r="N25">
-        <v>0.809243708355906</v>
+        <v>0.8994308468359578</v>
       </c>
       <c r="O25">
-        <v>0.8518560205467754</v>
+        <v>0.9706922575051831</v>
       </c>
       <c r="P25">
-        <v>0.9865224238637934</v>
+        <v>1.064526401436846</v>
       </c>
       <c r="Q25">
-        <v>0.9865224238637934</v>
+        <v>1.064526401436846</v>
       </c>
       <c r="R25">
-        <v>1.075161781617737</v>
+        <v>1.14707417873729</v>
       </c>
       <c r="S25">
-        <v>1.075161781617737</v>
+        <v>1.14707417873729</v>
       </c>
       <c r="T25">
-        <v>0.9366520703109953</v>
+        <v>0.9453816737412449</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.06586409168011</v>
+        <v>1.126509680406858</v>
       </c>
       <c r="D26">
-        <v>0.879512380514582</v>
+        <v>0.7677380426660106</v>
       </c>
       <c r="E26">
-        <v>1.027474153344448</v>
+        <v>1.093394366662893</v>
       </c>
       <c r="F26">
-        <v>1.06586409168011</v>
+        <v>1.126509680406858</v>
       </c>
       <c r="G26">
-        <v>0.9821263260816365</v>
+        <v>0.9937155478589206</v>
       </c>
       <c r="H26">
-        <v>0.879512380514582</v>
+        <v>0.7677380426660106</v>
       </c>
       <c r="I26">
-        <v>0.9995523817221563</v>
+        <v>1.031507248156779</v>
       </c>
       <c r="J26">
-        <v>1.217050965443922</v>
+        <v>1.096093967604579</v>
       </c>
       <c r="K26">
-        <v>0.879512380514582</v>
+        <v>0.7677380426660106</v>
       </c>
       <c r="L26">
-        <v>1.027474153344448</v>
+        <v>1.093394366662893</v>
       </c>
       <c r="M26">
-        <v>1.046669122512279</v>
+        <v>1.109952023534876</v>
       </c>
       <c r="N26">
-        <v>1.046669122512279</v>
+        <v>1.109952023534876</v>
       </c>
       <c r="O26">
-        <v>1.030963542248905</v>
+        <v>1.08380376507551</v>
       </c>
       <c r="P26">
-        <v>0.9909502085130465</v>
+        <v>0.9958806965785874</v>
       </c>
       <c r="Q26">
-        <v>0.9909502085130466</v>
+        <v>0.9958806965785872</v>
       </c>
       <c r="R26">
-        <v>0.9630907515134305</v>
+        <v>0.9388450331004431</v>
       </c>
       <c r="S26">
-        <v>0.9630907515134305</v>
+        <v>0.9388450331004431</v>
       </c>
       <c r="T26">
-        <v>1.028596716464476</v>
+        <v>1.018159808892673</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7357978784170719</v>
+        <v>0.6914880480071034</v>
       </c>
       <c r="D27">
-        <v>1.030414922603644</v>
+        <v>1.341079854879568</v>
       </c>
       <c r="E27">
-        <v>1.009393962405749</v>
+        <v>0.9269993687047086</v>
       </c>
       <c r="F27">
-        <v>0.7357978784170719</v>
+        <v>0.6914880480071034</v>
       </c>
       <c r="G27">
-        <v>1.005350798447097</v>
+        <v>1.05698381453548</v>
       </c>
       <c r="H27">
-        <v>1.030414922603644</v>
+        <v>1.341079854879568</v>
       </c>
       <c r="I27">
-        <v>0.9777025903110533</v>
+        <v>0.9370806449285144</v>
       </c>
       <c r="J27">
-        <v>1.129394394081144</v>
+        <v>0.6662806908105958</v>
       </c>
       <c r="K27">
-        <v>1.030414922603644</v>
+        <v>1.341079854879568</v>
       </c>
       <c r="L27">
-        <v>1.009393962405749</v>
+        <v>0.9269993687047086</v>
       </c>
       <c r="M27">
-        <v>0.8725959204114107</v>
+        <v>0.809243708355906</v>
       </c>
       <c r="N27">
-        <v>0.8725959204114107</v>
+        <v>0.809243708355906</v>
       </c>
       <c r="O27">
-        <v>0.9076314770446249</v>
+        <v>0.8518560205467754</v>
       </c>
       <c r="P27">
-        <v>0.9252022544754884</v>
+        <v>0.9865224238637934</v>
       </c>
       <c r="Q27">
-        <v>0.9252022544754883</v>
+        <v>0.9865224238637934</v>
       </c>
       <c r="R27">
-        <v>0.9515054215075273</v>
+        <v>1.075161781617737</v>
       </c>
       <c r="S27">
-        <v>0.9515054215075273</v>
+        <v>1.075161781617737</v>
       </c>
       <c r="T27">
-        <v>0.9813424243776264</v>
+        <v>0.9366520703109953</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.049191761293431</v>
+        <v>1.06586409168011</v>
       </c>
       <c r="D28">
-        <v>1.254250508830074</v>
+        <v>0.879512380514582</v>
       </c>
       <c r="E28">
-        <v>0.8991932613728693</v>
+        <v>1.027474153344448</v>
       </c>
       <c r="F28">
-        <v>1.049191761293431</v>
+        <v>1.06586409168011</v>
       </c>
       <c r="G28">
-        <v>0.9848872503628292</v>
+        <v>0.9821263260816365</v>
       </c>
       <c r="H28">
-        <v>1.254250508830074</v>
+        <v>0.879512380514582</v>
       </c>
       <c r="I28">
-        <v>0.9787842434744104</v>
+        <v>0.9995523817221563</v>
       </c>
       <c r="J28">
-        <v>0.8388854379969866</v>
+        <v>1.217050965443922</v>
       </c>
       <c r="K28">
-        <v>1.254250508830074</v>
+        <v>0.879512380514582</v>
       </c>
       <c r="L28">
-        <v>0.8991932613728693</v>
+        <v>1.027474153344448</v>
       </c>
       <c r="M28">
-        <v>0.9741925113331499</v>
+        <v>1.046669122512279</v>
       </c>
       <c r="N28">
-        <v>0.9741925113331499</v>
+        <v>1.046669122512279</v>
       </c>
       <c r="O28">
-        <v>0.9757230887135701</v>
+        <v>1.030963542248905</v>
       </c>
       <c r="P28">
-        <v>1.067545177165458</v>
+        <v>0.9909502085130465</v>
       </c>
       <c r="Q28">
-        <v>1.067545177165458</v>
+        <v>0.9909502085130466</v>
       </c>
       <c r="R28">
-        <v>1.114221510081612</v>
+        <v>0.9630907515134305</v>
       </c>
       <c r="S28">
-        <v>1.114221510081612</v>
+        <v>0.9630907515134305</v>
       </c>
       <c r="T28">
-        <v>1.0008654105551</v>
+        <v>1.028596716464476</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.7357978784170719</v>
+      </c>
+      <c r="D29">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="E29">
+        <v>1.009393962405749</v>
+      </c>
+      <c r="F29">
+        <v>0.7357978784170719</v>
+      </c>
+      <c r="G29">
+        <v>1.005350798447097</v>
+      </c>
+      <c r="H29">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="I29">
+        <v>0.9777025903110533</v>
+      </c>
+      <c r="J29">
+        <v>1.129394394081144</v>
+      </c>
+      <c r="K29">
+        <v>1.030414922603644</v>
+      </c>
+      <c r="L29">
+        <v>1.009393962405749</v>
+      </c>
+      <c r="M29">
+        <v>0.8725959204114107</v>
+      </c>
+      <c r="N29">
+        <v>0.8725959204114107</v>
+      </c>
+      <c r="O29">
+        <v>0.9076314770446249</v>
+      </c>
+      <c r="P29">
+        <v>0.9252022544754884</v>
+      </c>
+      <c r="Q29">
+        <v>0.9252022544754883</v>
+      </c>
+      <c r="R29">
+        <v>0.9515054215075273</v>
+      </c>
+      <c r="S29">
+        <v>0.9515054215075273</v>
+      </c>
+      <c r="T29">
+        <v>0.9813424243776264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.049191761293431</v>
+      </c>
+      <c r="D30">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="E30">
+        <v>0.8991932613728693</v>
+      </c>
+      <c r="F30">
+        <v>1.049191761293431</v>
+      </c>
+      <c r="G30">
+        <v>0.9848872503628292</v>
+      </c>
+      <c r="H30">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="I30">
+        <v>0.9787842434744104</v>
+      </c>
+      <c r="J30">
+        <v>0.8388854379969866</v>
+      </c>
+      <c r="K30">
+        <v>1.254250508830074</v>
+      </c>
+      <c r="L30">
+        <v>0.8991932613728693</v>
+      </c>
+      <c r="M30">
+        <v>0.9741925113331499</v>
+      </c>
+      <c r="N30">
+        <v>0.9741925113331499</v>
+      </c>
+      <c r="O30">
+        <v>0.9757230887135701</v>
+      </c>
+      <c r="P30">
+        <v>1.067545177165458</v>
+      </c>
+      <c r="Q30">
+        <v>1.067545177165458</v>
+      </c>
+      <c r="R30">
+        <v>1.114221510081612</v>
+      </c>
+      <c r="S30">
+        <v>1.114221510081612</v>
+      </c>
+      <c r="T30">
+        <v>1.0008654105551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8952538796961231</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.055769110408035</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9759480129566341</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8952538796961231</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9470993800865903</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.055769110408035</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.203109009989811</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.3297069272699016</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.055769110408035</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9759480129566341</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9356009463263786</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9356009463263786</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.024770300880856</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9756570010202642</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9756570010202642</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.995685028367207</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.995685028367207</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9011477200678492</v>
       </c>
     </row>
